--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_0_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_0_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2421751.278102078</v>
+        <v>2420055.278666689</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>497475.7859898407</v>
+        <v>591552.13724015</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>320.5441765308656</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>320.5441765308656</v>
+        <v>320.5441765308654</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>135.950814798316</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00833977841103</v>
+        <v>320.5441765308654</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.5441765308654</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>131.3761561116594</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>24.13716385777627</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3221010888986</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>320.5441765308656</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>135.0256544003512</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>110.7141647620036</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>83.97336133698786</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>83.41535719150562</v>
+        <v>199.5298259531963</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9310191417753</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.22022175458157</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>223.804875106676</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>79.04489890551274</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>19.45240097060529</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
         <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>206.1608002224376</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>20.06784918479925</v>
+        <v>376.0368885193218</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>134.6751203255735</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>350.0224688985253</v>
+        <v>350.0224688985254</v>
       </c>
       <c r="C11" t="n">
-        <v>332.5615190060523</v>
+        <v>332.5615190060524</v>
       </c>
       <c r="D11" t="n">
-        <v>321.9716688557277</v>
+        <v>321.9716688557278</v>
       </c>
       <c r="E11" t="n">
-        <v>349.2189973073065</v>
+        <v>349.2189973073066</v>
       </c>
       <c r="F11" t="n">
-        <v>374.1646729767562</v>
+        <v>374.1646729767563</v>
       </c>
       <c r="G11" t="n">
-        <v>379.6425579819826</v>
+        <v>379.6425579819827</v>
       </c>
       <c r="H11" t="n">
-        <v>276.5639620360127</v>
+        <v>276.5639620360128</v>
       </c>
       <c r="I11" t="n">
-        <v>64.08064387452956</v>
+        <v>64.08064387452966</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1127625909972</v>
+        <v>109.1127625909973</v>
       </c>
       <c r="T11" t="n">
-        <v>177.476075171393</v>
+        <v>177.4760751713931</v>
       </c>
       <c r="U11" t="n">
-        <v>218.3983756014254</v>
+        <v>218.3983756014255</v>
       </c>
       <c r="V11" t="n">
-        <v>295.0408857051796</v>
+        <v>295.0408857051797</v>
       </c>
       <c r="W11" t="n">
-        <v>316.5295959524577</v>
+        <v>316.5295959524578</v>
       </c>
       <c r="X11" t="n">
-        <v>337.0197279135137</v>
+        <v>337.0197279135139</v>
       </c>
       <c r="Y11" t="n">
-        <v>353.5265658910983</v>
+        <v>353.5265658910984</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>96.99769390382595</v>
       </c>
       <c r="I12" t="n">
-        <v>35.07495251015098</v>
+        <v>35.07495251015097</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>2.198890597110037</v>
+        <v>2.198890597110022</v>
       </c>
       <c r="S12" t="n">
         <v>142.3771435566718</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>134.5354483336725</v>
+        <v>134.5354483336727</v>
       </c>
       <c r="D13" t="n">
-        <v>115.9041002532571</v>
+        <v>115.9041002532572</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>113.722589881614</v>
       </c>
       <c r="F13" t="n">
-        <v>112.709675257976</v>
+        <v>112.7096752579761</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>133.9568733935889</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.7554991105158</v>
       </c>
       <c r="I13" t="n">
-        <v>82.9609073866873</v>
+        <v>82.96090738668741</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>85.10712400514203</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>189.582538445509</v>
+        <v>189.5825384455091</v>
       </c>
       <c r="U13" t="n">
-        <v>253.5355075079039</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>134.3960875605574</v>
       </c>
       <c r="W13" t="n">
-        <v>253.8116255716357</v>
+        <v>253.8116255716358</v>
       </c>
       <c r="X13" t="n">
-        <v>192.9982826240819</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.4043838194332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>321.9716688557277</v>
       </c>
       <c r="E14" t="n">
-        <v>349.2189973073066</v>
+        <v>349.2189973073065</v>
       </c>
       <c r="F14" t="n">
         <v>374.1646729767562</v>
@@ -1622,10 +1622,10 @@
         <v>379.6425579819826</v>
       </c>
       <c r="H14" t="n">
-        <v>276.5639620360128</v>
+        <v>276.5639620360127</v>
       </c>
       <c r="I14" t="n">
-        <v>64.0806438745296</v>
+        <v>64.08064387452956</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1127625909973</v>
+        <v>109.1127625909972</v>
       </c>
       <c r="T14" t="n">
-        <v>177.4760751713931</v>
+        <v>177.476075171393</v>
       </c>
       <c r="U14" t="n">
-        <v>218.3983756014255</v>
+        <v>218.3983756014254</v>
       </c>
       <c r="V14" t="n">
-        <v>295.0408857051797</v>
+        <v>295.0408857051796</v>
       </c>
       <c r="W14" t="n">
-        <v>316.5295959524578</v>
+        <v>316.5295959524577</v>
       </c>
       <c r="X14" t="n">
-        <v>337.0197279135138</v>
+        <v>337.0197279135137</v>
       </c>
       <c r="Y14" t="n">
-        <v>353.5265658910984</v>
+        <v>353.5265658910983</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>147.1206074169821</v>
+        <v>147.120607416982</v>
       </c>
       <c r="C16" t="n">
-        <v>134.5354483336726</v>
+        <v>134.5354483336725</v>
       </c>
       <c r="D16" t="n">
         <v>115.9041002532571</v>
       </c>
       <c r="E16" t="n">
-        <v>49.16341008984934</v>
+        <v>113.7225898816139</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>133.9568733935889</v>
+        <v>133.9568733935888</v>
       </c>
       <c r="H16" t="n">
-        <v>117.7554991105157</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>82.96090738668735</v>
+        <v>82.9609073866873</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>85.10712400514197</v>
+        <v>85.10712400514191</v>
       </c>
       <c r="S16" t="n">
-        <v>168.2535930516859</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>253.5355075079039</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>219.4262705588727</v>
       </c>
       <c r="W16" t="n">
-        <v>253.8116255716358</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>188.1730404624361</v>
       </c>
       <c r="Y16" t="n">
-        <v>185.8732805871396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>321.9716688557277</v>
       </c>
       <c r="E17" t="n">
-        <v>349.2189973073066</v>
+        <v>349.2189973073065</v>
       </c>
       <c r="F17" t="n">
         <v>374.1646729767562</v>
@@ -1859,10 +1859,10 @@
         <v>379.6425579819826</v>
       </c>
       <c r="H17" t="n">
-        <v>276.5639620360128</v>
+        <v>276.5639620360127</v>
       </c>
       <c r="I17" t="n">
-        <v>64.08064387452958</v>
+        <v>64.08064387453028</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1127625909973</v>
+        <v>109.1127625909972</v>
       </c>
       <c r="T17" t="n">
-        <v>177.4760751713931</v>
+        <v>177.476075171393</v>
       </c>
       <c r="U17" t="n">
-        <v>218.3983756014255</v>
+        <v>218.3983756014254</v>
       </c>
       <c r="V17" t="n">
-        <v>295.0408857051797</v>
+        <v>295.0408857051796</v>
       </c>
       <c r="W17" t="n">
-        <v>316.5295959524578</v>
+        <v>316.5295959524577</v>
       </c>
       <c r="X17" t="n">
-        <v>337.0197279135138</v>
+        <v>337.0197279135137</v>
       </c>
       <c r="Y17" t="n">
-        <v>353.5265658910984</v>
+        <v>353.5265658910983</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>96.99769390382595</v>
       </c>
       <c r="I18" t="n">
-        <v>35.07495251015096</v>
+        <v>35.07495251015097</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2.198890597110008</v>
+        <v>2.198890597110022</v>
       </c>
       <c r="S18" t="n">
         <v>142.3771435566718</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>147.1206074169821</v>
+        <v>147.120607416982</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>134.5354483336725</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>115.9041002532571</v>
       </c>
       <c r="E19" t="n">
-        <v>32.09435648803102</v>
+        <v>113.7225898816139</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>112.709675257976</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>133.9568733935888</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>117.7554991105157</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>82.9609073866873</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.2535930516859</v>
       </c>
       <c r="T19" t="n">
-        <v>189.582538445509</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>253.535507507904</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>219.4262705588728</v>
+        <v>154.5248924900953</v>
       </c>
       <c r="W19" t="n">
-        <v>253.8116255716358</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>192.9982826240819</v>
       </c>
       <c r="Y19" t="n">
-        <v>185.8732805871396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2178,7 +2178,7 @@
         <v>96.99769390382595</v>
       </c>
       <c r="I21" t="n">
-        <v>35.07495251015096</v>
+        <v>35.07495251015097</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>2.198890597110008</v>
+        <v>2.198890597110022</v>
       </c>
       <c r="S21" t="n">
         <v>142.3771435566718</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>49.71404402348484</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>49.71404402348502</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.2535930516859</v>
@@ -2336,7 +2336,7 @@
         <v>276.5639620360128</v>
       </c>
       <c r="I23" t="n">
-        <v>64.08064387452958</v>
+        <v>64.0806438745296</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1127625909973</v>
+        <v>109.1127625909972</v>
       </c>
       <c r="T23" t="n">
         <v>177.4760751713931</v>
@@ -2415,7 +2415,7 @@
         <v>96.99769390382595</v>
       </c>
       <c r="I24" t="n">
-        <v>35.07495251015096</v>
+        <v>35.07495251015097</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>2.198890597110008</v>
+        <v>2.198890597110022</v>
       </c>
       <c r="S24" t="n">
         <v>142.3771435566718</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>49.71404402348491</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.2535930516859</v>
@@ -2542,7 +2542,7 @@
         <v>192.9982826240819</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>49.71404402348484</v>
       </c>
     </row>
     <row r="26">
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>147.1206074169821</v>
       </c>
       <c r="C28" t="n">
-        <v>51.20582653007116</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>115.9041002532571</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>113.7225898816139</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>112.709675257976</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>49.71404402348512</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>168.2535930516859</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>189.582538445509</v>
       </c>
       <c r="U28" t="n">
         <v>253.535507507904</v>
@@ -2776,10 +2776,10 @@
         <v>253.8116255716358</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>192.9982826240819</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.8732805871396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>147.120607416982</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>62.87777804687806</v>
+        <v>115.9041002532571</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>113.7225898816139</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>112.709675257976</v>
       </c>
       <c r="G31" t="n">
-        <v>133.9568733935888</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>117.7554991105157</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.2535930516859</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>189.582538445509</v>
       </c>
       <c r="U31" t="n">
-        <v>253.5355075079039</v>
+        <v>11.41128007971253</v>
       </c>
       <c r="V31" t="n">
         <v>219.4262705588727</v>
@@ -3029,25 +3029,25 @@
         <v>317.31109613357</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>299.850146241097</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>289.2602960907724</v>
       </c>
       <c r="E32" t="n">
         <v>316.5076245423512</v>
       </c>
       <c r="F32" t="n">
-        <v>341.4533002118009</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>346.9311852170273</v>
       </c>
       <c r="H32" t="n">
-        <v>276.5639620360134</v>
+        <v>243.8525892710574</v>
       </c>
       <c r="I32" t="n">
-        <v>31.36927110957426</v>
+        <v>96.79201663948483</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>76.40138982604194</v>
+        <v>141.8241353559525</v>
       </c>
       <c r="T32" t="n">
         <v>210.1874479363483</v>
@@ -3086,13 +3086,13 @@
         <v>251.1097483663807</v>
       </c>
       <c r="V32" t="n">
-        <v>262.3295129402243</v>
+        <v>262.3295129402244</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>337.0197279135137</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>114.4092346520267</v>
+        <v>114.4092346520268</v>
       </c>
       <c r="C34" t="n">
         <v>101.8240755687173</v>
       </c>
       <c r="D34" t="n">
-        <v>83.19272748830178</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>81.01121711665863</v>
       </c>
       <c r="F34" t="n">
-        <v>79.99830249302067</v>
+        <v>79.9983024930207</v>
       </c>
       <c r="G34" t="n">
-        <v>101.2455006286335</v>
+        <v>66.78573071286571</v>
       </c>
       <c r="H34" t="n">
-        <v>85.04412634556039</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>52.39575124018663</v>
+        <v>52.39575124018665</v>
       </c>
       <c r="S34" t="n">
         <v>135.5422202867306</v>
@@ -3244,16 +3244,16 @@
         <v>220.8241347429486</v>
       </c>
       <c r="V34" t="n">
-        <v>186.7148977939174</v>
+        <v>186.7148977939175</v>
       </c>
       <c r="W34" t="n">
-        <v>221.1002528066804</v>
+        <v>221.1002528066805</v>
       </c>
       <c r="X34" t="n">
         <v>160.2869098591266</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.47650118921314</v>
+        <v>153.1619078221842</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>317.31109613357</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>299.850146241097</v>
       </c>
       <c r="D35" t="n">
-        <v>321.9716688557273</v>
+        <v>289.2602960907724</v>
       </c>
       <c r="E35" t="n">
         <v>316.5076245423512</v>
       </c>
       <c r="F35" t="n">
-        <v>341.4533002118009</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>412.3539307469379</v>
+        <v>346.9311852170273</v>
       </c>
       <c r="H35" t="n">
         <v>243.8525892710574</v>
       </c>
       <c r="I35" t="n">
-        <v>96.79201663948483</v>
+        <v>64.0806438745301</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,19 +3314,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>141.8241353559525</v>
+        <v>76.40138982604194</v>
       </c>
       <c r="T35" t="n">
-        <v>144.7647024064377</v>
+        <v>210.1874479363483</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1097483663807</v>
+        <v>185.6870028364702</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>283.8182231875024</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3427,22 +3427,22 @@
         <v>101.8240755687173</v>
       </c>
       <c r="D37" t="n">
-        <v>83.19272748830178</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>81.0112171166586</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>79.99830249302067</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.461250079456961</v>
+        <v>101.2455006286335</v>
       </c>
       <c r="H37" t="n">
-        <v>85.04412634556039</v>
+        <v>76.30021507218014</v>
       </c>
       <c r="I37" t="n">
-        <v>50.24953462173201</v>
+        <v>50.24953462173202</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>52.39575124018663</v>
+        <v>52.39575124018662</v>
       </c>
       <c r="S37" t="n">
         <v>135.5422202867306</v>
@@ -3490,7 +3490,7 @@
         <v>160.2869098591266</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>153.1619078221842</v>
       </c>
     </row>
     <row r="38">
@@ -3506,16 +3506,16 @@
         <v>299.850146241097</v>
       </c>
       <c r="D38" t="n">
-        <v>289.2602960907724</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>316.5076245423512</v>
       </c>
       <c r="F38" t="n">
         <v>341.4533002118009</v>
       </c>
       <c r="G38" t="n">
-        <v>346.9311852170273</v>
+        <v>379.6425579819842</v>
       </c>
       <c r="H38" t="n">
         <v>309.275334800968</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>141.8241353559525</v>
+        <v>76.40138982604194</v>
       </c>
       <c r="T38" t="n">
-        <v>177.476075171393</v>
+        <v>210.1874479363483</v>
       </c>
       <c r="U38" t="n">
-        <v>185.6870028364702</v>
+        <v>251.1097483663807</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>320.815193126143</v>
       </c>
     </row>
     <row r="39">
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>114.4092346520267</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>101.8240755687173</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>81.0112171166586</v>
+        <v>25.66702088562557</v>
       </c>
       <c r="F40" t="n">
         <v>79.99830249302067</v>
@@ -3679,7 +3679,7 @@
         <v>85.04412634556039</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>50.24953462173202</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>34.71593054757662</v>
+        <v>52.39575124018662</v>
       </c>
       <c r="S40" t="n">
         <v>135.5422202867306</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>350.0224688985253</v>
+        <v>350.0224688985252</v>
       </c>
       <c r="C41" t="n">
-        <v>332.5615190060523</v>
+        <v>332.5615190060522</v>
       </c>
       <c r="D41" t="n">
-        <v>321.9716688557277</v>
+        <v>321.9716688557276</v>
       </c>
       <c r="E41" t="n">
-        <v>349.2189973073065</v>
+        <v>349.2189973073064</v>
       </c>
       <c r="F41" t="n">
-        <v>374.1646729767562</v>
+        <v>374.164672976756</v>
       </c>
       <c r="G41" t="n">
-        <v>379.6425579819826</v>
+        <v>379.6425579819825</v>
       </c>
       <c r="H41" t="n">
-        <v>276.5639620360127</v>
+        <v>276.5639620360126</v>
       </c>
       <c r="I41" t="n">
-        <v>64.08064387452954</v>
+        <v>64.08064387452946</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1127625909972</v>
+        <v>109.1127625909971</v>
       </c>
       <c r="T41" t="n">
-        <v>177.476075171393</v>
+        <v>177.4760751713943</v>
       </c>
       <c r="U41" t="n">
         <v>218.3983756014254</v>
@@ -3800,13 +3800,13 @@
         <v>295.0408857051796</v>
       </c>
       <c r="W41" t="n">
-        <v>316.5295959524577</v>
+        <v>316.5295959524576</v>
       </c>
       <c r="X41" t="n">
-        <v>337.0197279135137</v>
+        <v>337.0197279135136</v>
       </c>
       <c r="Y41" t="n">
-        <v>353.5265658910983</v>
+        <v>353.5265658910982</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>147.120607416982</v>
+        <v>147.1206074169819</v>
       </c>
       <c r="C43" t="n">
-        <v>99.51252637557064</v>
+        <v>134.5354483336725</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>113.7225898816139</v>
+        <v>113.7225898816138</v>
       </c>
       <c r="F43" t="n">
-        <v>112.709675257976</v>
+        <v>23.1670910944611</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.9568733935887</v>
       </c>
       <c r="H43" t="n">
-        <v>117.7554991105157</v>
+        <v>117.7554991105156</v>
       </c>
       <c r="I43" t="n">
-        <v>82.9609073866873</v>
+        <v>82.96090738668721</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>85.10712400514183</v>
       </c>
       <c r="S43" t="n">
-        <v>168.2535930516859</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>189.5825384455089</v>
       </c>
       <c r="U43" t="n">
-        <v>253.5355075079039</v>
+        <v>253.5355075079038</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>192.9982826240819</v>
+        <v>192.9982826240818</v>
       </c>
       <c r="Y43" t="n">
-        <v>185.8732805871395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>350.0224688985252</v>
+        <v>350.0224688985253</v>
       </c>
       <c r="C44" t="n">
-        <v>332.5615190060522</v>
+        <v>332.5615190060523</v>
       </c>
       <c r="D44" t="n">
-        <v>321.9716688557276</v>
+        <v>321.9716688557277</v>
       </c>
       <c r="E44" t="n">
-        <v>349.2189973073064</v>
+        <v>349.2189973073066</v>
       </c>
       <c r="F44" t="n">
-        <v>374.1646729767561</v>
+        <v>374.1646729767562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.6425579819825</v>
+        <v>379.6425579819826</v>
       </c>
       <c r="H44" t="n">
-        <v>276.5639620360126</v>
+        <v>276.5639620360128</v>
       </c>
       <c r="I44" t="n">
-        <v>64.08064387453052</v>
+        <v>64.08064387452958</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1127625909972</v>
+        <v>109.1127625909973</v>
       </c>
       <c r="T44" t="n">
-        <v>177.4760751713929</v>
+        <v>177.4760751713931</v>
       </c>
       <c r="U44" t="n">
-        <v>218.3983756014254</v>
+        <v>218.3983756014255</v>
       </c>
       <c r="V44" t="n">
-        <v>295.0408857051796</v>
+        <v>295.0408857051797</v>
       </c>
       <c r="W44" t="n">
-        <v>316.5295959524577</v>
+        <v>316.5295959524578</v>
       </c>
       <c r="X44" t="n">
-        <v>337.0197279135137</v>
+        <v>337.0197279135138</v>
       </c>
       <c r="Y44" t="n">
-        <v>353.5265658910982</v>
+        <v>353.5265658910984</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>147.120607416982</v>
+        <v>147.1206074169821</v>
       </c>
       <c r="C46" t="n">
-        <v>134.5354483336725</v>
+        <v>134.5354483336726</v>
       </c>
       <c r="D46" t="n">
-        <v>115.904100253257</v>
+        <v>83.43218874149767</v>
       </c>
       <c r="E46" t="n">
-        <v>45.7302702952133</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>133.9568733935888</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>117.7554991105156</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>82.96090738668724</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>85.10712400514186</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.2535930516858</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>189.5825384455089</v>
+        <v>189.582538445509</v>
       </c>
       <c r="U46" t="n">
-        <v>253.5355075079038</v>
+        <v>253.535507507904</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>219.4262705588728</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>253.8116255716358</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>192.9982826240819</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>501.9095251402396</v>
+        <v>1003.935024359144</v>
       </c>
       <c r="C2" t="n">
-        <v>501.9095251402396</v>
+        <v>1003.935024359144</v>
       </c>
       <c r="D2" t="n">
-        <v>178.1275286444157</v>
+        <v>680.1530278633201</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1275286444157</v>
+        <v>680.1530278633201</v>
       </c>
       <c r="F2" t="n">
-        <v>40.8034732925814</v>
+        <v>673.2075271141166</v>
       </c>
       <c r="G2" t="n">
-        <v>25.64353412246925</v>
+        <v>349.4255306182929</v>
       </c>
       <c r="H2" t="n">
-        <v>25.64353412246925</v>
+        <v>25.64353412246923</v>
       </c>
       <c r="I2" t="n">
-        <v>25.64353412246925</v>
+        <v>25.64353412246923</v>
       </c>
       <c r="J2" t="n">
-        <v>38.55051116961033</v>
+        <v>38.55051116961022</v>
       </c>
       <c r="K2" t="n">
-        <v>178.6395282223127</v>
+        <v>178.6395282223125</v>
       </c>
       <c r="L2" t="n">
-        <v>404.7089689366663</v>
+        <v>404.708968936666</v>
       </c>
       <c r="M2" t="n">
-        <v>672.8613261222267</v>
+        <v>672.8613261222263</v>
       </c>
       <c r="N2" t="n">
-        <v>930.7206712458946</v>
+        <v>930.720671245894</v>
       </c>
       <c r="O2" t="n">
         <v>1129.022300985367</v>
@@ -4349,31 +4349,31 @@
         <v>1260.593771190122</v>
       </c>
       <c r="Q2" t="n">
-        <v>1282.176706123463</v>
+        <v>1282.176706123462</v>
       </c>
       <c r="R2" t="n">
-        <v>1149.473518131887</v>
+        <v>1282.176706123462</v>
       </c>
       <c r="S2" t="n">
-        <v>1149.473518131887</v>
+        <v>1282.176706123462</v>
       </c>
       <c r="T2" t="n">
-        <v>1149.473518131887</v>
+        <v>1257.795732529748</v>
       </c>
       <c r="U2" t="n">
-        <v>1149.473518131887</v>
+        <v>1003.935024359144</v>
       </c>
       <c r="V2" t="n">
-        <v>1149.473518131887</v>
+        <v>1003.935024359144</v>
       </c>
       <c r="W2" t="n">
-        <v>825.6915216360635</v>
+        <v>1003.935024359144</v>
       </c>
       <c r="X2" t="n">
-        <v>825.6915216360635</v>
+        <v>1003.935024359144</v>
       </c>
       <c r="Y2" t="n">
-        <v>825.6915216360635</v>
+        <v>1003.935024359144</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>528.0696138676979</v>
+        <v>644.6579779696476</v>
       </c>
       <c r="C3" t="n">
-        <v>528.0696138676979</v>
+        <v>470.2049486885206</v>
       </c>
       <c r="D3" t="n">
-        <v>528.0696138676979</v>
+        <v>321.2705390272694</v>
       </c>
       <c r="E3" t="n">
-        <v>368.8321588622424</v>
+        <v>162.0330840218139</v>
       </c>
       <c r="F3" t="n">
-        <v>222.2976008891274</v>
+        <v>25.64353412246923</v>
       </c>
       <c r="G3" t="n">
-        <v>222.2976008891274</v>
+        <v>25.64353412246923</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4651112305378</v>
+        <v>25.64353412246923</v>
       </c>
       <c r="I3" t="n">
-        <v>25.64353412246925</v>
+        <v>25.64353412246923</v>
       </c>
       <c r="J3" t="n">
-        <v>25.64353412246925</v>
+        <v>25.64353412246923</v>
       </c>
       <c r="K3" t="n">
-        <v>151.0010941803067</v>
+        <v>145.5922977547289</v>
       </c>
       <c r="L3" t="n">
-        <v>380.9642000486558</v>
+        <v>375.5554036230781</v>
       </c>
       <c r="M3" t="n">
-        <v>444.1407243046732</v>
+        <v>692.8941383886348</v>
       </c>
       <c r="N3" t="n">
-        <v>761.4794590702302</v>
+        <v>1010.232873154192</v>
       </c>
       <c r="O3" t="n">
         <v>1010.232873154192</v>
       </c>
       <c r="P3" t="n">
-        <v>1192.876350767543</v>
+        <v>1192.876350767542</v>
       </c>
       <c r="Q3" t="n">
-        <v>1282.176706123463</v>
+        <v>1282.176706123462</v>
       </c>
       <c r="R3" t="n">
-        <v>1282.176706123463</v>
+        <v>1282.176706123462</v>
       </c>
       <c r="S3" t="n">
-        <v>1282.176706123463</v>
+        <v>1282.176706123462</v>
       </c>
       <c r="T3" t="n">
-        <v>1197.918769566386</v>
+        <v>1080.631427382859</v>
       </c>
       <c r="U3" t="n">
-        <v>1197.918769566386</v>
+        <v>852.4182767346015</v>
       </c>
       <c r="V3" t="n">
-        <v>1197.918769566386</v>
+        <v>852.4182767346015</v>
       </c>
       <c r="W3" t="n">
-        <v>943.6814128381845</v>
+        <v>852.4182767346015</v>
       </c>
       <c r="X3" t="n">
-        <v>735.8299126326517</v>
+        <v>852.4182767346015</v>
       </c>
       <c r="Y3" t="n">
-        <v>528.0696138676979</v>
+        <v>644.6579779696476</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.64353412246925</v>
+        <v>25.64353412246923</v>
       </c>
       <c r="C4" t="n">
-        <v>25.64353412246925</v>
+        <v>25.64353412246923</v>
       </c>
       <c r="D4" t="n">
-        <v>25.64353412246925</v>
+        <v>25.64353412246923</v>
       </c>
       <c r="E4" t="n">
-        <v>25.64353412246925</v>
+        <v>25.64353412246923</v>
       </c>
       <c r="F4" t="n">
-        <v>25.64353412246925</v>
+        <v>25.64353412246923</v>
       </c>
       <c r="G4" t="n">
-        <v>25.64353412246925</v>
+        <v>25.64353412246923</v>
       </c>
       <c r="H4" t="n">
-        <v>25.64353412246925</v>
+        <v>25.64353412246923</v>
       </c>
       <c r="I4" t="n">
-        <v>25.64353412246925</v>
+        <v>25.64353412246923</v>
       </c>
       <c r="J4" t="n">
-        <v>25.64353412246925</v>
+        <v>25.64353412246923</v>
       </c>
       <c r="K4" t="n">
-        <v>25.64353412246925</v>
+        <v>25.64353412246923</v>
       </c>
       <c r="L4" t="n">
-        <v>72.39455505894524</v>
+        <v>72.39455505894517</v>
       </c>
       <c r="M4" t="n">
-        <v>132.0760747541429</v>
+        <v>132.0760747541428</v>
       </c>
       <c r="N4" t="n">
-        <v>195.7731177275973</v>
+        <v>195.7731177275971</v>
       </c>
       <c r="O4" t="n">
-        <v>238.5913510642459</v>
+        <v>238.5913510642456</v>
       </c>
       <c r="P4" t="n">
-        <v>251.7090645332535</v>
+        <v>251.7090645332531</v>
       </c>
       <c r="Q4" t="n">
-        <v>251.7090645332535</v>
+        <v>251.7090645332531</v>
       </c>
       <c r="R4" t="n">
-        <v>251.7090645332535</v>
+        <v>251.7090645332531</v>
       </c>
       <c r="S4" t="n">
-        <v>251.7090645332535</v>
+        <v>251.7090645332531</v>
       </c>
       <c r="T4" t="n">
-        <v>251.7090645332535</v>
+        <v>251.7090645332531</v>
       </c>
       <c r="U4" t="n">
-        <v>251.7090645332535</v>
+        <v>251.7090645332531</v>
       </c>
       <c r="V4" t="n">
-        <v>251.7090645332535</v>
+        <v>25.64353412246923</v>
       </c>
       <c r="W4" t="n">
-        <v>251.7090645332535</v>
+        <v>25.64353412246923</v>
       </c>
       <c r="X4" t="n">
-        <v>251.7090645332535</v>
+        <v>25.64353412246923</v>
       </c>
       <c r="Y4" t="n">
-        <v>30.91648538972336</v>
+        <v>25.64353412246923</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.603060210037</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>1257.755191400004</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1257.755191400004</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>871.9669388017599</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177354</v>
+        <v>460.9810340121523</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2677.500201148924</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2677.500201148924</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2346.437313805353</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.668658535239</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1620.202900274159</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y5" t="n">
-        <v>1620.202900274159</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4671,10 +4671,10 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4762,13 +4762,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>519.8857516585174</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.175505447095</v>
+        <v>1957.780595683986</v>
       </c>
       <c r="C8" t="n">
-        <v>825.2129885066831</v>
+        <v>1588.818078743575</v>
       </c>
       <c r="D8" t="n">
-        <v>466.9472898999326</v>
+        <v>1230.552380136824</v>
       </c>
       <c r="E8" t="n">
-        <v>81.15903730168839</v>
+        <v>844.7641275385799</v>
       </c>
       <c r="F8" t="n">
-        <v>74.21353655248491</v>
+        <v>433.7782227489724</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4844,10 +4844,10 @@
         <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511217</v>
+        <v>2344.380435748108</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2207.118688098185</v>
+        <v>2207.118688098187</v>
       </c>
       <c r="C11" t="n">
-        <v>1871.197961829445</v>
+        <v>1871.197961829447</v>
       </c>
       <c r="D11" t="n">
-        <v>1545.974053894367</v>
+        <v>1545.974053894368</v>
       </c>
       <c r="E11" t="n">
-        <v>1193.227591967795</v>
+        <v>1193.227591967796</v>
       </c>
       <c r="F11" t="n">
-        <v>815.2834778498591</v>
+        <v>815.2834778498601</v>
       </c>
       <c r="G11" t="n">
-        <v>431.8061465549272</v>
+        <v>431.8061465549281</v>
       </c>
       <c r="H11" t="n">
-        <v>152.4486091448136</v>
+        <v>152.4486091448137</v>
       </c>
       <c r="I11" t="n">
-        <v>87.72068603922816</v>
+        <v>87.72068603922818</v>
       </c>
       <c r="J11" t="n">
-        <v>323.6644151360124</v>
+        <v>323.6644151360128</v>
       </c>
       <c r="K11" t="n">
-        <v>798.0277071975938</v>
+        <v>798.0277071975943</v>
       </c>
       <c r="L11" t="n">
-        <v>1438.793944613803</v>
+        <v>1438.793944613804</v>
       </c>
       <c r="M11" t="n">
-        <v>2168.376391648545</v>
+        <v>2168.376391648546</v>
       </c>
       <c r="N11" t="n">
-        <v>2895.132247885461</v>
+        <v>2895.132247885462</v>
       </c>
       <c r="O11" t="n">
-        <v>3536.199556729537</v>
+        <v>3536.199556729538</v>
       </c>
       <c r="P11" t="n">
         <v>4045.661290304049</v>
       </c>
       <c r="Q11" t="n">
-        <v>4351.024075401909</v>
+        <v>4351.024075401911</v>
       </c>
       <c r="R11" t="n">
-        <v>4386.034301961407</v>
+        <v>4386.034301961409</v>
       </c>
       <c r="S11" t="n">
-        <v>4275.819390253329</v>
+        <v>4275.819390253331</v>
       </c>
       <c r="T11" t="n">
-        <v>4096.550627453942</v>
+        <v>4096.550627453944</v>
       </c>
       <c r="U11" t="n">
-        <v>3875.946207654523</v>
+        <v>3875.946207654525</v>
       </c>
       <c r="V11" t="n">
-        <v>3577.925110982625</v>
+        <v>3577.925110982626</v>
       </c>
       <c r="W11" t="n">
-        <v>3258.198246384182</v>
+        <v>3258.198246384184</v>
       </c>
       <c r="X11" t="n">
-        <v>2917.774278794775</v>
+        <v>2917.774278794776</v>
       </c>
       <c r="Y11" t="n">
-        <v>2560.676737490635</v>
+        <v>2560.676737490637</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.423989335473</v>
+        <v>987.4239893354733</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9709600543461</v>
+        <v>812.9709600543463</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0365503930948</v>
+        <v>664.036550393095</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7990953876393</v>
+        <v>504.7990953876395</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2645374145243</v>
+        <v>358.2645374145244</v>
       </c>
       <c r="G12" t="n">
         <v>221.1273995886998</v>
@@ -5115,46 +5115,46 @@
         <v>123.1499309989766</v>
       </c>
       <c r="I12" t="n">
-        <v>87.72068603922816</v>
+        <v>87.72068603922818</v>
       </c>
       <c r="J12" t="n">
-        <v>87.72068603922816</v>
+        <v>87.72068603922818</v>
       </c>
       <c r="K12" t="n">
-        <v>465.302665469432</v>
+        <v>465.3026654694321</v>
       </c>
       <c r="L12" t="n">
         <v>1034.412629610563</v>
       </c>
       <c r="M12" t="n">
-        <v>1750.516336220733</v>
+        <v>1556.372751527581</v>
       </c>
       <c r="N12" t="n">
-        <v>2095.036991858351</v>
+        <v>1900.8934071652</v>
       </c>
       <c r="O12" t="n">
-        <v>2343.790405942313</v>
+        <v>2149.646821249162</v>
       </c>
       <c r="P12" t="n">
-        <v>2561.164115573511</v>
+        <v>2630.558674086841</v>
       </c>
       <c r="Q12" t="n">
-        <v>2630.55867408684</v>
+        <v>2630.558674086841</v>
       </c>
       <c r="R12" t="n">
         <v>2628.337572473598</v>
       </c>
       <c r="S12" t="n">
-        <v>2484.522275951707</v>
+        <v>2484.522275951708</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.759360681717</v>
+        <v>2288.759360681718</v>
       </c>
       <c r="U12" t="n">
         <v>2060.640590285972</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.488482054229</v>
+        <v>1825.48848205423</v>
       </c>
       <c r="W12" t="n">
         <v>1571.251125326028</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>538.3369802125542</v>
+        <v>907.4632048445936</v>
       </c>
       <c r="C13" t="n">
-        <v>402.4425879563192</v>
+        <v>771.5688125883586</v>
       </c>
       <c r="D13" t="n">
-        <v>285.3677392156557</v>
+        <v>654.4939638476948</v>
       </c>
       <c r="E13" t="n">
-        <v>285.3677392156557</v>
+        <v>539.6226609369738</v>
       </c>
       <c r="F13" t="n">
-        <v>171.5195823894173</v>
+        <v>425.7745041107353</v>
       </c>
       <c r="G13" t="n">
-        <v>171.5195823894173</v>
+        <v>290.464530985898</v>
       </c>
       <c r="H13" t="n">
-        <v>171.5195823894173</v>
+        <v>171.5195823894175</v>
       </c>
       <c r="I13" t="n">
-        <v>87.72068603922816</v>
+        <v>87.72068603922818</v>
       </c>
       <c r="J13" t="n">
-        <v>120.2614216226551</v>
+        <v>120.2614216226552</v>
       </c>
       <c r="K13" t="n">
-        <v>282.739656406522</v>
+        <v>282.7396564065219</v>
       </c>
       <c r="L13" t="n">
-        <v>537.1258492141812</v>
+        <v>537.125849214181</v>
       </c>
       <c r="M13" t="n">
-        <v>813.9691435388668</v>
+        <v>813.9691435388665</v>
       </c>
       <c r="N13" t="n">
-        <v>1090.434364819082</v>
+        <v>1090.434364819081</v>
       </c>
       <c r="O13" t="n">
         <v>1332.250602621746</v>
@@ -5218,31 +5218,31 @@
         <v>1520.319417756279</v>
       </c>
       <c r="Q13" t="n">
-        <v>1577.056513514134</v>
+        <v>1577.056513514133</v>
       </c>
       <c r="R13" t="n">
-        <v>1577.056513514134</v>
+        <v>1491.089721589747</v>
       </c>
       <c r="S13" t="n">
-        <v>1577.056513514134</v>
+        <v>1491.089721589747</v>
       </c>
       <c r="T13" t="n">
-        <v>1385.558999932812</v>
+        <v>1299.592208008425</v>
       </c>
       <c r="U13" t="n">
-        <v>1129.462527702605</v>
+        <v>1299.592208008425</v>
       </c>
       <c r="V13" t="n">
-        <v>1129.462527702605</v>
+        <v>1163.838584209882</v>
       </c>
       <c r="W13" t="n">
-        <v>873.0871483373169</v>
+        <v>907.4632048445936</v>
       </c>
       <c r="X13" t="n">
-        <v>678.1393881109716</v>
+        <v>907.4632048445936</v>
       </c>
       <c r="Y13" t="n">
-        <v>538.3369802125542</v>
+        <v>907.4632048445936</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2207.118688098185</v>
       </c>
       <c r="C14" t="n">
-        <v>1871.197961829446</v>
+        <v>1871.197961829445</v>
       </c>
       <c r="D14" t="n">
         <v>1545.974053894367</v>
@@ -5264,7 +5264,7 @@
         <v>1193.227591967795</v>
       </c>
       <c r="F14" t="n">
-        <v>815.2834778498591</v>
+        <v>815.2834778498595</v>
       </c>
       <c r="G14" t="n">
         <v>431.8061465549275</v>
@@ -5297,7 +5297,7 @@
         <v>4045.661290304049</v>
       </c>
       <c r="Q14" t="n">
-        <v>4351.02407540191</v>
+        <v>4351.024075401909</v>
       </c>
       <c r="R14" t="n">
         <v>4386.034301961408</v>
@@ -5309,13 +5309,13 @@
         <v>4096.550627453943</v>
       </c>
       <c r="U14" t="n">
-        <v>3875.946207654524</v>
+        <v>3875.946207654523</v>
       </c>
       <c r="V14" t="n">
         <v>3577.925110982625</v>
       </c>
       <c r="W14" t="n">
-        <v>3258.198246384183</v>
+        <v>3258.198246384182</v>
       </c>
       <c r="X14" t="n">
         <v>2917.774278794775</v>
@@ -5355,13 +5355,13 @@
         <v>87.72068603922817</v>
       </c>
       <c r="J15" t="n">
-        <v>216.9991696268185</v>
+        <v>234.5537750299091</v>
       </c>
       <c r="K15" t="n">
-        <v>594.5811490570223</v>
+        <v>612.135754460113</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.691113198153</v>
+        <v>1181.245718601244</v>
       </c>
       <c r="M15" t="n">
         <v>1879.794819808324</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.4037552994009</v>
+        <v>674.6700994218743</v>
       </c>
       <c r="C16" t="n">
-        <v>592.509363043166</v>
+        <v>538.7757071656393</v>
       </c>
       <c r="D16" t="n">
-        <v>475.4345143025022</v>
+        <v>421.7008584249756</v>
       </c>
       <c r="E16" t="n">
-        <v>425.7745041107352</v>
+        <v>306.8295555142546</v>
       </c>
       <c r="F16" t="n">
-        <v>425.7745041107352</v>
+        <v>306.8295555142546</v>
       </c>
       <c r="G16" t="n">
-        <v>290.464530985898</v>
+        <v>171.5195823894174</v>
       </c>
       <c r="H16" t="n">
         <v>171.5195823894174</v>
@@ -5434,13 +5434,13 @@
         <v>87.72068603922817</v>
       </c>
       <c r="J16" t="n">
-        <v>120.2614216226552</v>
+        <v>120.2614216226551</v>
       </c>
       <c r="K16" t="n">
         <v>282.739656406522</v>
       </c>
       <c r="L16" t="n">
-        <v>537.1258492141812</v>
+        <v>537.1258492141811</v>
       </c>
       <c r="M16" t="n">
         <v>813.9691435388668</v>
@@ -5455,31 +5455,31 @@
         <v>1520.319417756279</v>
       </c>
       <c r="Q16" t="n">
-        <v>1577.056513514133</v>
+        <v>1577.056513514134</v>
       </c>
       <c r="R16" t="n">
         <v>1491.089721589748</v>
       </c>
       <c r="S16" t="n">
-        <v>1321.136597295116</v>
+        <v>1491.089721589748</v>
       </c>
       <c r="T16" t="n">
-        <v>1321.136597295116</v>
+        <v>1491.089721589748</v>
       </c>
       <c r="U16" t="n">
-        <v>1321.136597295116</v>
+        <v>1234.993249359542</v>
       </c>
       <c r="V16" t="n">
-        <v>1321.136597295116</v>
+        <v>1013.350551825327</v>
       </c>
       <c r="W16" t="n">
-        <v>1064.761217929827</v>
+        <v>1013.350551825327</v>
       </c>
       <c r="X16" t="n">
-        <v>1064.761217929827</v>
+        <v>823.276773580442</v>
       </c>
       <c r="Y16" t="n">
-        <v>877.0104294579687</v>
+        <v>823.276773580442</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>1871.197961829446</v>
       </c>
       <c r="D17" t="n">
-        <v>1545.974053894367</v>
+        <v>1545.974053894368</v>
       </c>
       <c r="E17" t="n">
-        <v>1193.227591967795</v>
+        <v>1193.227591967796</v>
       </c>
       <c r="F17" t="n">
-        <v>815.2834778498595</v>
+        <v>815.2834778498601</v>
       </c>
       <c r="G17" t="n">
-        <v>431.8061465549276</v>
+        <v>431.8061465549282</v>
       </c>
       <c r="H17" t="n">
-        <v>152.4486091448136</v>
+        <v>152.4486091448143</v>
       </c>
       <c r="I17" t="n">
         <v>87.72068603922818</v>
@@ -5531,7 +5531,7 @@
         <v>3536.199556729538</v>
       </c>
       <c r="P17" t="n">
-        <v>4045.66129030405</v>
+        <v>4045.661290304049</v>
       </c>
       <c r="Q17" t="n">
         <v>4351.024075401911</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.423989335473</v>
+        <v>987.4239893354733</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9709600543461</v>
+        <v>812.9709600543463</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0365503930948</v>
+        <v>664.036550393095</v>
       </c>
       <c r="E18" t="n">
-        <v>504.7990953876393</v>
+        <v>504.7990953876395</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2645374145243</v>
+        <v>358.2645374145244</v>
       </c>
       <c r="G18" t="n">
         <v>221.1273995886998</v>
@@ -5592,43 +5592,43 @@
         <v>87.72068603922818</v>
       </c>
       <c r="J18" t="n">
-        <v>87.72068603922818</v>
+        <v>234.5537750299091</v>
       </c>
       <c r="K18" t="n">
-        <v>87.72068603922818</v>
+        <v>612.135754460113</v>
       </c>
       <c r="L18" t="n">
-        <v>87.72068603922818</v>
+        <v>1181.245718601244</v>
       </c>
       <c r="M18" t="n">
-        <v>778.4963921812263</v>
+        <v>1897.349425211414</v>
       </c>
       <c r="N18" t="n">
-        <v>1529.260246459743</v>
+        <v>2630.558674086841</v>
       </c>
       <c r="O18" t="n">
-        <v>2149.646821249161</v>
+        <v>2630.558674086841</v>
       </c>
       <c r="P18" t="n">
-        <v>2630.55867408684</v>
+        <v>2630.558674086841</v>
       </c>
       <c r="Q18" t="n">
-        <v>2630.55867408684</v>
+        <v>2630.558674086841</v>
       </c>
       <c r="R18" t="n">
         <v>2628.337572473598</v>
       </c>
       <c r="S18" t="n">
-        <v>2484.522275951707</v>
+        <v>2484.522275951708</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.759360681717</v>
+        <v>2288.759360681718</v>
       </c>
       <c r="U18" t="n">
         <v>2060.640590285972</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.488482054229</v>
+        <v>1825.48848205423</v>
       </c>
       <c r="W18" t="n">
         <v>1571.251125326028</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>120.1392279463302</v>
+        <v>907.4632048445932</v>
       </c>
       <c r="C19" t="n">
-        <v>120.1392279463302</v>
+        <v>771.5688125883582</v>
       </c>
       <c r="D19" t="n">
-        <v>120.1392279463302</v>
+        <v>654.4939638476944</v>
       </c>
       <c r="E19" t="n">
-        <v>87.72068603922818</v>
+        <v>539.6226609369734</v>
       </c>
       <c r="F19" t="n">
-        <v>87.72068603922818</v>
+        <v>425.7745041107351</v>
       </c>
       <c r="G19" t="n">
-        <v>87.72068603922818</v>
+        <v>290.4645309858978</v>
       </c>
       <c r="H19" t="n">
-        <v>87.72068603922818</v>
+        <v>171.5195823894174</v>
       </c>
       <c r="I19" t="n">
         <v>87.72068603922818</v>
       </c>
       <c r="J19" t="n">
-        <v>120.2614216226552</v>
+        <v>120.2614216226553</v>
       </c>
       <c r="K19" t="n">
         <v>282.7396564065221</v>
@@ -5680,7 +5680,7 @@
         <v>537.1258492141814</v>
       </c>
       <c r="M19" t="n">
-        <v>813.9691435388669</v>
+        <v>813.969143538867</v>
       </c>
       <c r="N19" t="n">
         <v>1090.434364819082</v>
@@ -5692,31 +5692,31 @@
         <v>1520.319417756279</v>
       </c>
       <c r="Q19" t="n">
-        <v>1577.056513514133</v>
+        <v>1577.056513514134</v>
       </c>
       <c r="R19" t="n">
-        <v>1577.056513514133</v>
+        <v>1577.056513514134</v>
       </c>
       <c r="S19" t="n">
-        <v>1577.056513514133</v>
+        <v>1407.103389219501</v>
       </c>
       <c r="T19" t="n">
-        <v>1385.558999932811</v>
+        <v>1407.103389219501</v>
       </c>
       <c r="U19" t="n">
-        <v>1129.462527702605</v>
+        <v>1407.103389219501</v>
       </c>
       <c r="V19" t="n">
-        <v>907.8198301683904</v>
+        <v>1251.017639229506</v>
       </c>
       <c r="W19" t="n">
-        <v>651.4444508031016</v>
+        <v>1251.017639229506</v>
       </c>
       <c r="X19" t="n">
-        <v>456.4966905767561</v>
+        <v>1056.069879003161</v>
       </c>
       <c r="Y19" t="n">
-        <v>268.745902104898</v>
+        <v>1056.069879003161</v>
       </c>
     </row>
     <row r="20">
@@ -5744,28 +5744,28 @@
         <v>431.8061465549276</v>
       </c>
       <c r="H20" t="n">
-        <v>152.4486091448136</v>
+        <v>152.4486091448143</v>
       </c>
       <c r="I20" t="n">
         <v>87.72068603922818</v>
       </c>
       <c r="J20" t="n">
-        <v>323.6644151360128</v>
+        <v>323.6644151360124</v>
       </c>
       <c r="K20" t="n">
-        <v>798.0277071975944</v>
+        <v>798.0277071975934</v>
       </c>
       <c r="L20" t="n">
-        <v>1438.793944613804</v>
+        <v>1438.793944613803</v>
       </c>
       <c r="M20" t="n">
-        <v>2168.376391648546</v>
+        <v>2168.376391648545</v>
       </c>
       <c r="N20" t="n">
-        <v>2895.132247885462</v>
+        <v>2895.132247885461</v>
       </c>
       <c r="O20" t="n">
-        <v>3536.199556729539</v>
+        <v>3536.199556729538</v>
       </c>
       <c r="P20" t="n">
         <v>4045.66129030405</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.423989335473</v>
+        <v>987.4239893354733</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9709600543461</v>
+        <v>812.9709600543463</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0365503930948</v>
+        <v>664.036550393095</v>
       </c>
       <c r="E21" t="n">
-        <v>504.7990953876393</v>
+        <v>504.7990953876395</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2645374145243</v>
+        <v>358.2645374145244</v>
       </c>
       <c r="G21" t="n">
         <v>221.1273995886998</v>
@@ -5829,43 +5829,43 @@
         <v>87.72068603922818</v>
       </c>
       <c r="J21" t="n">
-        <v>87.72068603922818</v>
+        <v>234.5537750299091</v>
       </c>
       <c r="K21" t="n">
-        <v>87.72068603922818</v>
+        <v>612.135754460113</v>
       </c>
       <c r="L21" t="n">
-        <v>87.72068603922818</v>
+        <v>1181.245718601244</v>
       </c>
       <c r="M21" t="n">
-        <v>509.7173237563519</v>
+        <v>1897.349425211414</v>
       </c>
       <c r="N21" t="n">
-        <v>1260.481178034869</v>
+        <v>2630.558674086841</v>
       </c>
       <c r="O21" t="n">
-        <v>1880.867752824287</v>
+        <v>2630.558674086841</v>
       </c>
       <c r="P21" t="n">
-        <v>2361.779605661966</v>
+        <v>2630.558674086841</v>
       </c>
       <c r="Q21" t="n">
-        <v>2630.55867408684</v>
+        <v>2630.558674086841</v>
       </c>
       <c r="R21" t="n">
         <v>2628.337572473598</v>
       </c>
       <c r="S21" t="n">
-        <v>2484.522275951707</v>
+        <v>2484.522275951708</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.759360681717</v>
+        <v>2288.759360681718</v>
       </c>
       <c r="U21" t="n">
         <v>2060.640590285972</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.488482054229</v>
+        <v>1825.48848205423</v>
       </c>
       <c r="W21" t="n">
         <v>1571.251125326028</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>87.72068603922818</v>
+        <v>137.9368921235563</v>
       </c>
       <c r="C22" t="n">
-        <v>87.72068603922818</v>
+        <v>137.9368921235563</v>
       </c>
       <c r="D22" t="n">
-        <v>87.72068603922818</v>
+        <v>137.9368921235563</v>
       </c>
       <c r="E22" t="n">
         <v>87.72068603922818</v>
@@ -5914,10 +5914,10 @@
         <v>282.7396564065222</v>
       </c>
       <c r="L22" t="n">
-        <v>537.1258492141814</v>
+        <v>537.1258492141812</v>
       </c>
       <c r="M22" t="n">
-        <v>813.969143538867</v>
+        <v>813.9691435388669</v>
       </c>
       <c r="N22" t="n">
         <v>1090.434364819082</v>
@@ -5929,31 +5929,31 @@
         <v>1520.319417756279</v>
       </c>
       <c r="Q22" t="n">
-        <v>1577.056513514134</v>
+        <v>1577.056513514133</v>
       </c>
       <c r="R22" t="n">
-        <v>1526.840307429806</v>
+        <v>1577.056513514133</v>
       </c>
       <c r="S22" t="n">
-        <v>1356.887183135173</v>
+        <v>1407.103389219501</v>
       </c>
       <c r="T22" t="n">
-        <v>1165.389669553851</v>
+        <v>1215.605875638179</v>
       </c>
       <c r="U22" t="n">
-        <v>909.293197323645</v>
+        <v>959.509403407973</v>
       </c>
       <c r="V22" t="n">
-        <v>687.6504997894301</v>
+        <v>737.8667058737581</v>
       </c>
       <c r="W22" t="n">
-        <v>431.2751204241414</v>
+        <v>481.4913265084695</v>
       </c>
       <c r="X22" t="n">
-        <v>236.3273601977959</v>
+        <v>286.5435662821241</v>
       </c>
       <c r="Y22" t="n">
-        <v>236.3273601977959</v>
+        <v>286.5435662821241</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5987,10 @@
         <v>87.72068603922818</v>
       </c>
       <c r="J23" t="n">
-        <v>323.6644151360128</v>
+        <v>323.6644151360133</v>
       </c>
       <c r="K23" t="n">
-        <v>798.0277071975943</v>
+        <v>798.0277071975947</v>
       </c>
       <c r="L23" t="n">
         <v>1438.793944613804</v>
@@ -6002,7 +6002,7 @@
         <v>2895.132247885462</v>
       </c>
       <c r="O23" t="n">
-        <v>3536.199556729538</v>
+        <v>3536.199556729539</v>
       </c>
       <c r="P23" t="n">
         <v>4045.66129030405</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.423989335473</v>
+        <v>987.4239893354733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9709600543461</v>
+        <v>812.9709600543463</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0365503930948</v>
+        <v>664.036550393095</v>
       </c>
       <c r="E24" t="n">
-        <v>504.7990953876393</v>
+        <v>504.7990953876395</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2645374145243</v>
+        <v>358.2645374145244</v>
       </c>
       <c r="G24" t="n">
         <v>221.1273995886998</v>
@@ -6066,43 +6066,43 @@
         <v>87.72068603922818</v>
       </c>
       <c r="J24" t="n">
-        <v>87.72068603922818</v>
+        <v>234.5537750299091</v>
       </c>
       <c r="K24" t="n">
-        <v>213.0782460970656</v>
+        <v>380.4377729085037</v>
       </c>
       <c r="L24" t="n">
-        <v>782.1882102381965</v>
+        <v>949.5477370496346</v>
       </c>
       <c r="M24" t="n">
-        <v>1498.291916848367</v>
+        <v>1665.651443659805</v>
       </c>
       <c r="N24" t="n">
-        <v>1498.291916848367</v>
+        <v>2010.172099297423</v>
       </c>
       <c r="O24" t="n">
-        <v>2118.678491637785</v>
+        <v>2630.558674086841</v>
       </c>
       <c r="P24" t="n">
-        <v>2599.590344475464</v>
+        <v>2630.558674086841</v>
       </c>
       <c r="Q24" t="n">
-        <v>2630.55867408684</v>
+        <v>2630.558674086841</v>
       </c>
       <c r="R24" t="n">
         <v>2628.337572473598</v>
       </c>
       <c r="S24" t="n">
-        <v>2484.522275951707</v>
+        <v>2484.522275951708</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.759360681717</v>
+        <v>2288.759360681718</v>
       </c>
       <c r="U24" t="n">
         <v>2060.640590285972</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.488482054229</v>
+        <v>1825.48848205423</v>
       </c>
       <c r="W24" t="n">
         <v>1571.251125326028</v>
@@ -6154,7 +6154,7 @@
         <v>537.1258492141812</v>
       </c>
       <c r="M25" t="n">
-        <v>813.9691435388669</v>
+        <v>813.9691435388668</v>
       </c>
       <c r="N25" t="n">
         <v>1090.434364819082</v>
@@ -6166,28 +6166,28 @@
         <v>1520.319417756279</v>
       </c>
       <c r="Q25" t="n">
-        <v>1577.056513514133</v>
+        <v>1577.056513514134</v>
       </c>
       <c r="R25" t="n">
-        <v>1526.840307429805</v>
+        <v>1577.056513514134</v>
       </c>
       <c r="S25" t="n">
-        <v>1356.887183135173</v>
+        <v>1407.103389219502</v>
       </c>
       <c r="T25" t="n">
-        <v>1165.389669553851</v>
+        <v>1215.605875638179</v>
       </c>
       <c r="U25" t="n">
-        <v>909.293197323645</v>
+        <v>959.5094034079734</v>
       </c>
       <c r="V25" t="n">
-        <v>687.6504997894301</v>
+        <v>737.8667058737585</v>
       </c>
       <c r="W25" t="n">
-        <v>431.2751204241414</v>
+        <v>481.4913265084698</v>
       </c>
       <c r="X25" t="n">
-        <v>236.3273601977959</v>
+        <v>286.5435662821244</v>
       </c>
       <c r="Y25" t="n">
         <v>236.3273601977959</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2207.118688098186</v>
+        <v>2207.118688098185</v>
       </c>
       <c r="C26" t="n">
-        <v>1871.197961829447</v>
+        <v>1871.197961829446</v>
       </c>
       <c r="D26" t="n">
-        <v>1545.974053894368</v>
+        <v>1545.974053894367</v>
       </c>
       <c r="E26" t="n">
-        <v>1193.227591967796</v>
+        <v>1193.227591967795</v>
       </c>
       <c r="F26" t="n">
-        <v>815.28347784986</v>
+        <v>815.2834778498591</v>
       </c>
       <c r="G26" t="n">
-        <v>431.8061465549281</v>
+        <v>431.8061465549272</v>
       </c>
       <c r="H26" t="n">
         <v>152.4486091448136</v>
@@ -6224,10 +6224,10 @@
         <v>87.72068603922818</v>
       </c>
       <c r="J26" t="n">
-        <v>323.664415136013</v>
+        <v>323.6644151360124</v>
       </c>
       <c r="K26" t="n">
-        <v>798.0277071975944</v>
+        <v>798.0277071975934</v>
       </c>
       <c r="L26" t="n">
         <v>1438.793944613803</v>
@@ -6266,10 +6266,10 @@
         <v>3258.198246384183</v>
       </c>
       <c r="X26" t="n">
-        <v>2917.774278794776</v>
+        <v>2917.774278794775</v>
       </c>
       <c r="Y26" t="n">
-        <v>2560.676737490636</v>
+        <v>2560.676737490635</v>
       </c>
     </row>
     <row r="27">
@@ -6303,19 +6303,19 @@
         <v>87.72068603922818</v>
       </c>
       <c r="J27" t="n">
-        <v>87.72068603922818</v>
+        <v>234.5537750299091</v>
       </c>
       <c r="K27" t="n">
-        <v>87.72068603922818</v>
+        <v>612.135754460113</v>
       </c>
       <c r="L27" t="n">
-        <v>543.3045384087359</v>
+        <v>1181.245718601244</v>
       </c>
       <c r="M27" t="n">
-        <v>1259.408245018906</v>
+        <v>1897.349425211414</v>
       </c>
       <c r="N27" t="n">
-        <v>2010.172099297423</v>
+        <v>2630.558674086841</v>
       </c>
       <c r="O27" t="n">
         <v>2630.558674086841</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>485.2380516179335</v>
+        <v>137.9368921235565</v>
       </c>
       <c r="C28" t="n">
-        <v>433.5149945168515</v>
+        <v>137.9368921235565</v>
       </c>
       <c r="D28" t="n">
-        <v>316.4401457761878</v>
+        <v>137.9368921235565</v>
       </c>
       <c r="E28" t="n">
-        <v>201.5688428654666</v>
+        <v>137.9368921235565</v>
       </c>
       <c r="F28" t="n">
-        <v>87.72068603922818</v>
+        <v>137.9368921235565</v>
       </c>
       <c r="G28" t="n">
         <v>87.72068603922818</v>
@@ -6382,7 +6382,7 @@
         <v>87.72068603922818</v>
       </c>
       <c r="J28" t="n">
-        <v>120.2614216226552</v>
+        <v>120.2614216226553</v>
       </c>
       <c r="K28" t="n">
         <v>282.739656406522</v>
@@ -6403,31 +6403,31 @@
         <v>1520.319417756279</v>
       </c>
       <c r="Q28" t="n">
-        <v>1577.056513514133</v>
+        <v>1577.056513514134</v>
       </c>
       <c r="R28" t="n">
-        <v>1577.056513514133</v>
+        <v>1577.056513514134</v>
       </c>
       <c r="S28" t="n">
         <v>1407.103389219501</v>
       </c>
       <c r="T28" t="n">
-        <v>1407.103389219501</v>
+        <v>1215.605875638179</v>
       </c>
       <c r="U28" t="n">
-        <v>1151.006916989295</v>
+        <v>959.5094034079732</v>
       </c>
       <c r="V28" t="n">
-        <v>929.3642194550803</v>
+        <v>737.8667058737583</v>
       </c>
       <c r="W28" t="n">
-        <v>672.9888400897917</v>
+        <v>481.4913265084697</v>
       </c>
       <c r="X28" t="n">
-        <v>672.9888400897917</v>
+        <v>286.5435662821243</v>
       </c>
       <c r="Y28" t="n">
-        <v>485.2380516179335</v>
+        <v>286.5435662821243</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>815.2834778498595</v>
       </c>
       <c r="G29" t="n">
-        <v>431.8061465549276</v>
+        <v>431.8061465549274</v>
       </c>
       <c r="H29" t="n">
         <v>152.4486091448136</v>
@@ -6461,10 +6461,10 @@
         <v>87.72068603922818</v>
       </c>
       <c r="J29" t="n">
-        <v>323.664415136013</v>
+        <v>323.6644151360133</v>
       </c>
       <c r="K29" t="n">
-        <v>798.0277071975944</v>
+        <v>798.0277071975947</v>
       </c>
       <c r="L29" t="n">
         <v>1438.793944613804</v>
@@ -6476,7 +6476,7 @@
         <v>2895.132247885462</v>
       </c>
       <c r="O29" t="n">
-        <v>3536.199556729538</v>
+        <v>3536.199556729539</v>
       </c>
       <c r="P29" t="n">
         <v>4045.66129030405</v>
@@ -6540,19 +6540,19 @@
         <v>87.72068603922818</v>
       </c>
       <c r="J30" t="n">
-        <v>87.72068603922818</v>
+        <v>234.5537750299091</v>
       </c>
       <c r="K30" t="n">
-        <v>87.72068603922818</v>
+        <v>594.5811490570228</v>
       </c>
       <c r="L30" t="n">
-        <v>543.3045384087359</v>
+        <v>1163.691113198154</v>
       </c>
       <c r="M30" t="n">
-        <v>1259.408245018906</v>
+        <v>1879.794819808324</v>
       </c>
       <c r="N30" t="n">
-        <v>2010.172099297423</v>
+        <v>2630.558674086841</v>
       </c>
       <c r="O30" t="n">
         <v>2630.558674086841</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>286.5435662821243</v>
+        <v>552.4599431133315</v>
       </c>
       <c r="C31" t="n">
-        <v>286.5435662821243</v>
+        <v>552.4599431133315</v>
       </c>
       <c r="D31" t="n">
-        <v>223.0306591640654</v>
+        <v>435.3850943726677</v>
       </c>
       <c r="E31" t="n">
-        <v>223.0306591640654</v>
+        <v>320.5137914619468</v>
       </c>
       <c r="F31" t="n">
-        <v>223.0306591640654</v>
+        <v>206.6656346357087</v>
       </c>
       <c r="G31" t="n">
-        <v>87.72068603922818</v>
+        <v>206.6656346357087</v>
       </c>
       <c r="H31" t="n">
         <v>87.72068603922818</v>
@@ -6628,7 +6628,7 @@
         <v>537.1258492141814</v>
       </c>
       <c r="M31" t="n">
-        <v>813.969143538867</v>
+        <v>813.9691435388668</v>
       </c>
       <c r="N31" t="n">
         <v>1090.434364819082</v>
@@ -6640,31 +6640,31 @@
         <v>1520.319417756279</v>
       </c>
       <c r="Q31" t="n">
-        <v>1577.056513514134</v>
+        <v>1577.056513514133</v>
       </c>
       <c r="R31" t="n">
-        <v>1577.056513514134</v>
+        <v>1577.056513514133</v>
       </c>
       <c r="S31" t="n">
-        <v>1407.103389219501</v>
+        <v>1577.056513514133</v>
       </c>
       <c r="T31" t="n">
-        <v>1215.605875638179</v>
+        <v>1385.558999932811</v>
       </c>
       <c r="U31" t="n">
-        <v>959.5094034079732</v>
+        <v>1374.032454397748</v>
       </c>
       <c r="V31" t="n">
-        <v>737.8667058737583</v>
+        <v>1152.389756863533</v>
       </c>
       <c r="W31" t="n">
-        <v>481.4913265084696</v>
+        <v>896.0143774982446</v>
       </c>
       <c r="X31" t="n">
-        <v>286.5435662821243</v>
+        <v>701.0666172718993</v>
       </c>
       <c r="Y31" t="n">
-        <v>286.5435662821243</v>
+        <v>701.0666172718993</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2141.035106754842</v>
+        <v>2107.993316083169</v>
       </c>
       <c r="C32" t="n">
-        <v>1772.07258981443</v>
+        <v>1805.114380486101</v>
       </c>
       <c r="D32" t="n">
-        <v>1413.80689120768</v>
+        <v>1512.932263222695</v>
       </c>
       <c r="E32" t="n">
-        <v>1094.102219952779</v>
+        <v>1193.227591967795</v>
       </c>
       <c r="F32" t="n">
-        <v>749.199896506516</v>
+        <v>782.2416871781872</v>
       </c>
       <c r="G32" t="n">
-        <v>398.7643558832561</v>
+        <v>431.8061465549274</v>
       </c>
       <c r="H32" t="n">
-        <v>119.4068184731416</v>
+        <v>185.4903998164856</v>
       </c>
       <c r="I32" t="n">
         <v>87.72068603922817</v>
@@ -6725,25 +6725,25 @@
         <v>4386.034301961408</v>
       </c>
       <c r="S32" t="n">
-        <v>4308.861180925002</v>
+        <v>4242.777599581658</v>
       </c>
       <c r="T32" t="n">
-        <v>4096.550627453944</v>
+        <v>4030.467046110599</v>
       </c>
       <c r="U32" t="n">
-        <v>3842.904416982852</v>
+        <v>3776.820835639508</v>
       </c>
       <c r="V32" t="n">
-        <v>3577.925110982625</v>
+        <v>3511.841529639281</v>
       </c>
       <c r="W32" t="n">
-        <v>3225.156455712511</v>
+        <v>3159.072874369167</v>
       </c>
       <c r="X32" t="n">
-        <v>2851.690697451431</v>
+        <v>2818.648906779759</v>
       </c>
       <c r="Y32" t="n">
-        <v>2461.55136547562</v>
+        <v>2428.509574803947</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>87.72068603922817</v>
       </c>
       <c r="J33" t="n">
-        <v>87.72068603922817</v>
+        <v>234.5537750299091</v>
       </c>
       <c r="K33" t="n">
-        <v>87.72068603922817</v>
+        <v>612.135754460113</v>
       </c>
       <c r="L33" t="n">
-        <v>87.72068603922817</v>
+        <v>1181.245718601244</v>
       </c>
       <c r="M33" t="n">
-        <v>509.717323756352</v>
+        <v>1879.794819808324</v>
       </c>
       <c r="N33" t="n">
-        <v>1260.481178034869</v>
+        <v>2630.55867408684</v>
       </c>
       <c r="O33" t="n">
-        <v>1880.867752824287</v>
+        <v>2630.55867408684</v>
       </c>
       <c r="P33" t="n">
-        <v>2361.779605661966</v>
+        <v>2630.55867408684</v>
       </c>
       <c r="Q33" t="n">
         <v>2630.55867408684</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>543.5840522253228</v>
+        <v>420.6695000708063</v>
       </c>
       <c r="C34" t="n">
-        <v>440.7314506407599</v>
+        <v>317.8168984862434</v>
       </c>
       <c r="D34" t="n">
-        <v>356.6983925717682</v>
+        <v>317.8168984862434</v>
       </c>
       <c r="E34" t="n">
-        <v>356.6983925717682</v>
+        <v>235.9873862471943</v>
       </c>
       <c r="F34" t="n">
-        <v>275.8920264172019</v>
+        <v>155.1810200926279</v>
       </c>
       <c r="G34" t="n">
-        <v>173.6238439640367</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="H34" t="n">
-        <v>87.72068603922818</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="I34" t="n">
-        <v>87.72068603922818</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="J34" t="n">
-        <v>152.6456806599611</v>
+        <v>152.6456806599609</v>
       </c>
       <c r="K34" t="n">
-        <v>347.5081744811337</v>
+        <v>347.5081744811336</v>
       </c>
       <c r="L34" t="n">
-        <v>634.2786263260987</v>
+        <v>634.2786263260984</v>
       </c>
       <c r="M34" t="n">
-        <v>943.5061796880899</v>
+        <v>943.5061796880897</v>
       </c>
       <c r="N34" t="n">
         <v>1252.35566000561</v>
@@ -6895,13 +6895,13 @@
         <v>1076.182939606178</v>
       </c>
       <c r="W34" t="n">
-        <v>852.8493509125618</v>
+        <v>852.8493509125616</v>
       </c>
       <c r="X34" t="n">
-        <v>690.9433813578885</v>
+        <v>690.9433813578883</v>
       </c>
       <c r="Y34" t="n">
-        <v>659.1489357122185</v>
+        <v>536.234383557702</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2141.035106754841</v>
+        <v>2074.951525411498</v>
       </c>
       <c r="C35" t="n">
-        <v>1838.156171157773</v>
+        <v>1772.07258981443</v>
       </c>
       <c r="D35" t="n">
-        <v>1512.932263222695</v>
+        <v>1479.890472551024</v>
       </c>
       <c r="E35" t="n">
-        <v>1193.227591967795</v>
+        <v>1160.185801296123</v>
       </c>
       <c r="F35" t="n">
-        <v>848.3252685215314</v>
+        <v>749.1998965065159</v>
       </c>
       <c r="G35" t="n">
-        <v>431.8061465549274</v>
+        <v>398.764355883256</v>
       </c>
       <c r="H35" t="n">
-        <v>185.4903998164856</v>
+        <v>152.4486091448141</v>
       </c>
       <c r="I35" t="n">
         <v>87.72068603922817</v>
@@ -6962,25 +6962,25 @@
         <v>4386.034301961408</v>
       </c>
       <c r="S35" t="n">
-        <v>4242.777599581658</v>
+        <v>4308.861180925002</v>
       </c>
       <c r="T35" t="n">
-        <v>4096.550627453943</v>
+        <v>4096.550627453944</v>
       </c>
       <c r="U35" t="n">
-        <v>3842.904416982851</v>
+        <v>3908.987998326196</v>
       </c>
       <c r="V35" t="n">
-        <v>3511.84152963928</v>
+        <v>3577.925110982625</v>
       </c>
       <c r="W35" t="n">
-        <v>3225.15645571251</v>
+        <v>3225.156455712511</v>
       </c>
       <c r="X35" t="n">
-        <v>2851.69069745143</v>
+        <v>2851.690697451431</v>
       </c>
       <c r="Y35" t="n">
-        <v>2461.551365475619</v>
+        <v>2461.55136547562</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>87.72068603922817</v>
       </c>
       <c r="K36" t="n">
-        <v>87.72068603922817</v>
+        <v>465.302665469432</v>
       </c>
       <c r="L36" t="n">
-        <v>87.72068603922817</v>
+        <v>914.9376991141912</v>
       </c>
       <c r="M36" t="n">
-        <v>509.717323756352</v>
+        <v>1631.041405724362</v>
       </c>
       <c r="N36" t="n">
-        <v>1260.481178034869</v>
+        <v>2381.805260002878</v>
       </c>
       <c r="O36" t="n">
-        <v>1880.867752824287</v>
+        <v>2630.55867408684</v>
       </c>
       <c r="P36" t="n">
-        <v>2361.779605661966</v>
+        <v>2630.55867408684</v>
       </c>
       <c r="Q36" t="n">
         <v>2630.55867408684</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>575.3784978709931</v>
+        <v>420.669500070807</v>
       </c>
       <c r="C37" t="n">
-        <v>472.5258962864302</v>
+        <v>317.816898486244</v>
       </c>
       <c r="D37" t="n">
-        <v>388.4928382174385</v>
+        <v>317.816898486244</v>
       </c>
       <c r="E37" t="n">
-        <v>306.6633259783894</v>
+        <v>317.816898486244</v>
       </c>
       <c r="F37" t="n">
-        <v>225.856959823823</v>
+        <v>317.816898486244</v>
       </c>
       <c r="G37" t="n">
-        <v>224.3809496425538</v>
+        <v>215.5487160330788</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4777917177453</v>
+        <v>138.4777917177454</v>
       </c>
       <c r="I37" t="n">
         <v>87.72068603922817</v>
@@ -7096,10 +7096,10 @@
         <v>152.645680659961</v>
       </c>
       <c r="K37" t="n">
-        <v>347.5081744811336</v>
+        <v>347.5081744811337</v>
       </c>
       <c r="L37" t="n">
-        <v>634.2786263260986</v>
+        <v>634.2786263260987</v>
       </c>
       <c r="M37" t="n">
         <v>943.5061796880899</v>
@@ -7132,13 +7132,13 @@
         <v>1076.182939606179</v>
       </c>
       <c r="W37" t="n">
-        <v>852.8493509125622</v>
+        <v>852.849350912562</v>
       </c>
       <c r="X37" t="n">
-        <v>690.9433813578888</v>
+        <v>690.9433813578887</v>
       </c>
       <c r="Y37" t="n">
-        <v>690.9433813578888</v>
+        <v>536.2343835577027</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2107.993316083169</v>
+        <v>2141.035106754843</v>
       </c>
       <c r="C38" t="n">
-        <v>1805.114380486102</v>
+        <v>1838.156171157775</v>
       </c>
       <c r="D38" t="n">
-        <v>1512.932263222695</v>
+        <v>1479.890472551025</v>
       </c>
       <c r="E38" t="n">
-        <v>1127.144010624451</v>
+        <v>1160.185801296125</v>
       </c>
       <c r="F38" t="n">
-        <v>782.2416871781872</v>
+        <v>815.283477849861</v>
       </c>
       <c r="G38" t="n">
-        <v>431.8061465549274</v>
+        <v>431.8061465549275</v>
       </c>
       <c r="H38" t="n">
         <v>119.4068184731416</v>
       </c>
       <c r="I38" t="n">
-        <v>87.72068603922817</v>
+        <v>87.72068603922818</v>
       </c>
       <c r="J38" t="n">
-        <v>323.6644151360129</v>
+        <v>323.6644151360133</v>
       </c>
       <c r="K38" t="n">
-        <v>798.0277071975943</v>
+        <v>798.0277071975947</v>
       </c>
       <c r="L38" t="n">
         <v>1438.793944613804</v>
@@ -7193,31 +7193,31 @@
         <v>4045.66129030405</v>
       </c>
       <c r="Q38" t="n">
-        <v>4351.02407540191</v>
+        <v>4351.024075401911</v>
       </c>
       <c r="R38" t="n">
-        <v>4386.034301961408</v>
+        <v>4386.034301961409</v>
       </c>
       <c r="S38" t="n">
-        <v>4242.777599581658</v>
+        <v>4308.861180925003</v>
       </c>
       <c r="T38" t="n">
-        <v>4063.508836782271</v>
+        <v>4096.550627453945</v>
       </c>
       <c r="U38" t="n">
-        <v>3875.946207654524</v>
+        <v>3842.904416982853</v>
       </c>
       <c r="V38" t="n">
-        <v>3544.883320310953</v>
+        <v>3511.841529639282</v>
       </c>
       <c r="W38" t="n">
-        <v>3192.114665040839</v>
+        <v>3159.072874369168</v>
       </c>
       <c r="X38" t="n">
-        <v>2818.648906779759</v>
+        <v>2785.607116108088</v>
       </c>
       <c r="Y38" t="n">
-        <v>2428.509574803947</v>
+        <v>2461.551365475621</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.423989335473</v>
+        <v>987.4239893354733</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9709600543461</v>
+        <v>812.9709600543463</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0365503930948</v>
+        <v>664.036550393095</v>
       </c>
       <c r="E39" t="n">
-        <v>504.7990953876393</v>
+        <v>504.7990953876395</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2645374145243</v>
+        <v>358.2645374145244</v>
       </c>
       <c r="G39" t="n">
         <v>221.1273995886998</v>
@@ -7248,46 +7248,46 @@
         <v>123.1499309989766</v>
       </c>
       <c r="I39" t="n">
-        <v>87.72068603922817</v>
+        <v>87.72068603922818</v>
       </c>
       <c r="J39" t="n">
-        <v>87.72068603922817</v>
+        <v>234.5537750299091</v>
       </c>
       <c r="K39" t="n">
-        <v>87.72068603922817</v>
+        <v>612.135754460113</v>
       </c>
       <c r="L39" t="n">
-        <v>87.72068603922817</v>
+        <v>1163.691113198154</v>
       </c>
       <c r="M39" t="n">
-        <v>509.717323756352</v>
+        <v>1879.794819808324</v>
       </c>
       <c r="N39" t="n">
-        <v>1260.481178034869</v>
+        <v>2630.558674086841</v>
       </c>
       <c r="O39" t="n">
-        <v>1880.867752824287</v>
+        <v>2630.558674086841</v>
       </c>
       <c r="P39" t="n">
-        <v>2361.779605661966</v>
+        <v>2630.558674086841</v>
       </c>
       <c r="Q39" t="n">
-        <v>2630.55867408684</v>
+        <v>2630.558674086841</v>
       </c>
       <c r="R39" t="n">
         <v>2628.337572473598</v>
       </c>
       <c r="S39" t="n">
-        <v>2484.522275951707</v>
+        <v>2484.522275951708</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.759360681717</v>
+        <v>2288.759360681718</v>
       </c>
       <c r="U39" t="n">
         <v>2060.640590285972</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.488482054229</v>
+        <v>1825.48848205423</v>
       </c>
       <c r="W39" t="n">
         <v>1571.251125326028</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>438.5279048108172</v>
+        <v>536.2343835577025</v>
       </c>
       <c r="C40" t="n">
-        <v>438.5279048108172</v>
+        <v>433.3817819731394</v>
       </c>
       <c r="D40" t="n">
-        <v>438.5279048108172</v>
+        <v>433.3817819731394</v>
       </c>
       <c r="E40" t="n">
-        <v>356.6983925717681</v>
+        <v>407.4554982502853</v>
       </c>
       <c r="F40" t="n">
-        <v>275.8920264172017</v>
+        <v>326.649132095719</v>
       </c>
       <c r="G40" t="n">
-        <v>173.6238439640365</v>
+        <v>224.3809496425538</v>
       </c>
       <c r="H40" t="n">
-        <v>87.72068603922817</v>
+        <v>138.4777917177454</v>
       </c>
       <c r="I40" t="n">
-        <v>87.72068603922817</v>
+        <v>87.72068603922818</v>
       </c>
       <c r="J40" t="n">
-        <v>152.645680659961</v>
+        <v>152.6456806599608</v>
       </c>
       <c r="K40" t="n">
-        <v>347.5081744811337</v>
+        <v>347.5081744811335</v>
       </c>
       <c r="L40" t="n">
-        <v>634.2786263260987</v>
+        <v>634.2786263260984</v>
       </c>
       <c r="M40" t="n">
-        <v>943.5061796880901</v>
+        <v>943.5061796880897</v>
       </c>
       <c r="N40" t="n">
-        <v>1252.355660005611</v>
+        <v>1252.35566000561</v>
       </c>
       <c r="O40" t="n">
-        <v>1526.556156845581</v>
+        <v>1526.55615684558</v>
       </c>
       <c r="P40" t="n">
-        <v>1747.00923101742</v>
+        <v>1747.009231017419</v>
       </c>
       <c r="Q40" t="n">
         <v>1836.13058581258</v>
       </c>
       <c r="R40" t="n">
-        <v>1801.063989299876</v>
+        <v>1783.205584559866</v>
       </c>
       <c r="S40" t="n">
-        <v>1664.152655676916</v>
+        <v>1646.294250936906</v>
       </c>
       <c r="T40" t="n">
-        <v>1505.696932767266</v>
+        <v>1487.838528027255</v>
       </c>
       <c r="U40" t="n">
-        <v>1282.642251208732</v>
+        <v>1264.783846468721</v>
       </c>
       <c r="V40" t="n">
-        <v>1094.041344346189</v>
+        <v>1076.182939606178</v>
       </c>
       <c r="W40" t="n">
-        <v>870.7077556525725</v>
+        <v>852.8493509125619</v>
       </c>
       <c r="X40" t="n">
-        <v>708.8017860978991</v>
+        <v>690.9433813578886</v>
       </c>
       <c r="Y40" t="n">
-        <v>554.0927882977129</v>
+        <v>536.2343835577025</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2207.118688098185</v>
       </c>
       <c r="C41" t="n">
-        <v>1871.197961829446</v>
+        <v>1871.197961829445</v>
       </c>
       <c r="D41" t="n">
         <v>1545.974053894367</v>
@@ -7397,37 +7397,37 @@
         <v>1193.227591967795</v>
       </c>
       <c r="F41" t="n">
-        <v>815.2834778498595</v>
+        <v>815.2834778498591</v>
       </c>
       <c r="G41" t="n">
-        <v>431.8061465549276</v>
+        <v>431.8061465549272</v>
       </c>
       <c r="H41" t="n">
-        <v>152.4486091448136</v>
+        <v>152.4486091448135</v>
       </c>
       <c r="I41" t="n">
         <v>87.72068603922817</v>
       </c>
       <c r="J41" t="n">
-        <v>323.6644151360129</v>
+        <v>323.664415136013</v>
       </c>
       <c r="K41" t="n">
-        <v>798.0277071975943</v>
+        <v>798.0277071975944</v>
       </c>
       <c r="L41" t="n">
-        <v>1438.793944613804</v>
+        <v>1438.793944613803</v>
       </c>
       <c r="M41" t="n">
-        <v>2168.376391648546</v>
+        <v>2168.376391648545</v>
       </c>
       <c r="N41" t="n">
-        <v>2895.132247885462</v>
+        <v>2895.132247885461</v>
       </c>
       <c r="O41" t="n">
         <v>3536.199556729538</v>
       </c>
       <c r="P41" t="n">
-        <v>4045.66129030405</v>
+        <v>4045.661290304049</v>
       </c>
       <c r="Q41" t="n">
         <v>4351.02407540191</v>
@@ -7439,22 +7439,22 @@
         <v>4275.81939025333</v>
       </c>
       <c r="T41" t="n">
-        <v>4096.550627453944</v>
+        <v>4096.550627453942</v>
       </c>
       <c r="U41" t="n">
-        <v>3875.946207654524</v>
+        <v>3875.946207654522</v>
       </c>
       <c r="V41" t="n">
-        <v>3577.925110982625</v>
+        <v>3577.925110982624</v>
       </c>
       <c r="W41" t="n">
-        <v>3258.198246384182</v>
+        <v>3258.198246384181</v>
       </c>
       <c r="X41" t="n">
-        <v>2917.774278794775</v>
+        <v>2917.774278794774</v>
       </c>
       <c r="Y41" t="n">
-        <v>2560.676737490635</v>
+        <v>2560.676737490634</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>87.72068603922817</v>
       </c>
       <c r="J42" t="n">
-        <v>87.72068603922817</v>
+        <v>234.5537750299091</v>
       </c>
       <c r="K42" t="n">
-        <v>87.72068603922817</v>
+        <v>612.135754460113</v>
       </c>
       <c r="L42" t="n">
-        <v>87.72068603922817</v>
+        <v>1163.691113198153</v>
       </c>
       <c r="M42" t="n">
-        <v>803.8243926493985</v>
+        <v>1879.794819808324</v>
       </c>
       <c r="N42" t="n">
-        <v>1529.260246459743</v>
+        <v>2630.55867408684</v>
       </c>
       <c r="O42" t="n">
-        <v>2149.646821249161</v>
+        <v>2630.55867408684</v>
       </c>
       <c r="P42" t="n">
         <v>2630.55867408684</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>619.7016941325246</v>
+        <v>699.9413013933081</v>
       </c>
       <c r="C43" t="n">
-        <v>519.1839907228572</v>
+        <v>564.0469091370732</v>
       </c>
       <c r="D43" t="n">
-        <v>519.1839907228572</v>
+        <v>564.0469091370732</v>
       </c>
       <c r="E43" t="n">
-        <v>404.3126878121361</v>
+        <v>449.1756062263521</v>
       </c>
       <c r="F43" t="n">
-        <v>290.4645309858978</v>
+        <v>425.7745041107348</v>
       </c>
       <c r="G43" t="n">
-        <v>290.4645309858978</v>
+        <v>290.4645309858977</v>
       </c>
       <c r="H43" t="n">
-        <v>171.5195823894174</v>
+        <v>171.5195823894173</v>
       </c>
       <c r="I43" t="n">
         <v>87.72068603922817</v>
@@ -7570,13 +7570,13 @@
         <v>120.2614216226553</v>
       </c>
       <c r="K43" t="n">
-        <v>282.7396564065222</v>
+        <v>282.7396564065223</v>
       </c>
       <c r="L43" t="n">
-        <v>537.1258492141815</v>
+        <v>537.1258492141816</v>
       </c>
       <c r="M43" t="n">
-        <v>813.9691435388671</v>
+        <v>813.9691435388673</v>
       </c>
       <c r="N43" t="n">
         <v>1090.434364819082</v>
@@ -7591,28 +7591,28 @@
         <v>1577.056513514134</v>
       </c>
       <c r="R43" t="n">
-        <v>1577.056513514134</v>
+        <v>1491.089721589749</v>
       </c>
       <c r="S43" t="n">
-        <v>1407.103389219502</v>
+        <v>1491.089721589749</v>
       </c>
       <c r="T43" t="n">
-        <v>1407.103389219502</v>
+        <v>1299.592208008426</v>
       </c>
       <c r="U43" t="n">
-        <v>1151.006916989296</v>
+        <v>1043.495735778221</v>
       </c>
       <c r="V43" t="n">
-        <v>1151.006916989296</v>
+        <v>1043.495735778221</v>
       </c>
       <c r="W43" t="n">
-        <v>1151.006916989296</v>
+        <v>1043.495735778221</v>
       </c>
       <c r="X43" t="n">
-        <v>956.0591567629505</v>
+        <v>848.5479755518757</v>
       </c>
       <c r="Y43" t="n">
-        <v>768.3083682910924</v>
+        <v>848.5479755518757</v>
       </c>
     </row>
     <row r="44">
@@ -7628,22 +7628,22 @@
         <v>1871.197961829446</v>
       </c>
       <c r="D44" t="n">
-        <v>1545.974053894368</v>
+        <v>1545.974053894367</v>
       </c>
       <c r="E44" t="n">
-        <v>1193.227591967796</v>
+        <v>1193.227591967795</v>
       </c>
       <c r="F44" t="n">
-        <v>815.2834778498602</v>
+        <v>815.28347784986</v>
       </c>
       <c r="G44" t="n">
-        <v>431.8061465549284</v>
+        <v>431.8061465549276</v>
       </c>
       <c r="H44" t="n">
-        <v>152.4486091448146</v>
+        <v>152.4486091448136</v>
       </c>
       <c r="I44" t="n">
-        <v>87.72068603922817</v>
+        <v>87.72068603922818</v>
       </c>
       <c r="J44" t="n">
         <v>323.6644151360129</v>
@@ -7658,22 +7658,22 @@
         <v>2168.376391648546</v>
       </c>
       <c r="N44" t="n">
-        <v>2895.132247885462</v>
+        <v>2895.132247885463</v>
       </c>
       <c r="O44" t="n">
-        <v>3536.199556729538</v>
+        <v>3536.19955672954</v>
       </c>
       <c r="P44" t="n">
         <v>4045.66129030405</v>
       </c>
       <c r="Q44" t="n">
-        <v>4351.02407540191</v>
+        <v>4351.024075401911</v>
       </c>
       <c r="R44" t="n">
-        <v>4386.034301961408</v>
+        <v>4386.034301961409</v>
       </c>
       <c r="S44" t="n">
-        <v>4275.81939025333</v>
+        <v>4275.819390253331</v>
       </c>
       <c r="T44" t="n">
         <v>4096.550627453944</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.423989335473</v>
+        <v>987.4239893354733</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9709600543461</v>
+        <v>812.9709600543463</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0365503930948</v>
+        <v>664.036550393095</v>
       </c>
       <c r="E45" t="n">
-        <v>504.7990953876393</v>
+        <v>504.7990953876395</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2645374145243</v>
+        <v>358.2645374145244</v>
       </c>
       <c r="G45" t="n">
         <v>221.1273995886998</v>
@@ -7722,46 +7722,46 @@
         <v>123.1499309989766</v>
       </c>
       <c r="I45" t="n">
-        <v>87.72068603922817</v>
+        <v>87.72068603922818</v>
       </c>
       <c r="J45" t="n">
-        <v>87.72068603922817</v>
+        <v>234.5537750299091</v>
       </c>
       <c r="K45" t="n">
-        <v>87.72068603922817</v>
+        <v>612.135754460113</v>
       </c>
       <c r="L45" t="n">
-        <v>543.3045384087354</v>
+        <v>1181.245718601244</v>
       </c>
       <c r="M45" t="n">
-        <v>1259.408245018906</v>
+        <v>1879.794819808324</v>
       </c>
       <c r="N45" t="n">
-        <v>2010.172099297422</v>
+        <v>2630.558674086841</v>
       </c>
       <c r="O45" t="n">
-        <v>2630.55867408684</v>
+        <v>2630.558674086841</v>
       </c>
       <c r="P45" t="n">
-        <v>2630.55867408684</v>
+        <v>2630.558674086841</v>
       </c>
       <c r="Q45" t="n">
-        <v>2630.55867408684</v>
+        <v>2630.558674086841</v>
       </c>
       <c r="R45" t="n">
         <v>2628.337572473598</v>
       </c>
       <c r="S45" t="n">
-        <v>2484.522275951707</v>
+        <v>2484.522275951708</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.759360681717</v>
+        <v>2288.759360681718</v>
       </c>
       <c r="U45" t="n">
         <v>2060.640590285972</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.488482054229</v>
+        <v>1825.48848205423</v>
       </c>
       <c r="W45" t="n">
         <v>1571.251125326028</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>724.9359373250205</v>
+        <v>307.8900164181881</v>
       </c>
       <c r="C46" t="n">
-        <v>589.0415450687857</v>
+        <v>171.9956241619531</v>
       </c>
       <c r="D46" t="n">
-        <v>471.966696328122</v>
+        <v>87.72068603922818</v>
       </c>
       <c r="E46" t="n">
-        <v>425.7745041107348</v>
+        <v>87.72068603922818</v>
       </c>
       <c r="F46" t="n">
-        <v>425.7745041107348</v>
+        <v>87.72068603922818</v>
       </c>
       <c r="G46" t="n">
-        <v>290.4645309858977</v>
+        <v>87.72068603922818</v>
       </c>
       <c r="H46" t="n">
-        <v>171.5195823894173</v>
+        <v>87.72068603922818</v>
       </c>
       <c r="I46" t="n">
-        <v>87.72068603922817</v>
+        <v>87.72068603922818</v>
       </c>
       <c r="J46" t="n">
-        <v>120.2614216226553</v>
+        <v>120.2614216226552</v>
       </c>
       <c r="K46" t="n">
-        <v>282.7396564065223</v>
+        <v>282.739656406522</v>
       </c>
       <c r="L46" t="n">
-        <v>537.1258492141816</v>
+        <v>537.1258492141812</v>
       </c>
       <c r="M46" t="n">
-        <v>813.9691435388671</v>
+        <v>813.9691435388668</v>
       </c>
       <c r="N46" t="n">
-        <v>1090.434364819082</v>
+        <v>1090.434364819081</v>
       </c>
       <c r="O46" t="n">
-        <v>1332.250602621747</v>
+        <v>1332.250602621746</v>
       </c>
       <c r="P46" t="n">
-        <v>1520.31941775628</v>
+        <v>1520.319417756279</v>
       </c>
       <c r="Q46" t="n">
-        <v>1577.056513514134</v>
+        <v>1577.056513514133</v>
       </c>
       <c r="R46" t="n">
-        <v>1491.089721589748</v>
+        <v>1577.056513514133</v>
       </c>
       <c r="S46" t="n">
-        <v>1321.136597295116</v>
+        <v>1577.056513514133</v>
       </c>
       <c r="T46" t="n">
-        <v>1129.639083713794</v>
+        <v>1385.558999932811</v>
       </c>
       <c r="U46" t="n">
-        <v>873.5426114835882</v>
+        <v>1129.462527702605</v>
       </c>
       <c r="V46" t="n">
-        <v>873.5426114835882</v>
+        <v>907.8198301683899</v>
       </c>
       <c r="W46" t="n">
-        <v>873.5426114835882</v>
+        <v>651.4444508031013</v>
       </c>
       <c r="X46" t="n">
-        <v>873.5426114835882</v>
+        <v>456.4966905767559</v>
       </c>
       <c r="Y46" t="n">
-        <v>873.5426114835882</v>
+        <v>456.4966905767559</v>
       </c>
     </row>
   </sheetData>
@@ -8058,19 +8058,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>259.0018062796718</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>205.9487048876925</v>
+        <v>462.6782104528837</v>
       </c>
       <c r="N3" t="n">
-        <v>451.885888614199</v>
+        <v>451.8858886141987</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,10 +9255,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>461.6104496939676</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9726,16 +9726,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>171.2629151076137</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9966,7 +9966,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10203,7 +10203,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10680,10 +10680,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599045</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>353.1084206538726</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,10 +11151,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11388,7 +11388,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>147.120607416982</v>
+        <v>147.1206074169821</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>113.7225898816139</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>133.9568733935888</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.7554991105157</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>85.10712400514191</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.2535930516859</v>
+        <v>168.253593051686</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>253.535507507904</v>
       </c>
       <c r="V13" t="n">
-        <v>219.4262705588727</v>
+        <v>85.0301829983154</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>192.998282624082</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.46889676770627</v>
+        <v>185.8732805871396</v>
       </c>
     </row>
     <row r="14">
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>64.55917979176459</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>112.709675257976</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.7554991105157</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.2535930516859</v>
       </c>
       <c r="T16" t="n">
         <v>189.582538445509</v>
       </c>
       <c r="U16" t="n">
-        <v>253.535507507904</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>219.4262705588728</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>253.8116255716357</v>
       </c>
       <c r="X16" t="n">
-        <v>192.9982826240819</v>
+        <v>4.825242161645757</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>185.8732805871395</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>134.5354483336726</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>115.9041002532571</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>81.62823339358292</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>112.709675257976</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>133.9568733935889</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>117.7554991105157</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>82.96090738668735</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>85.10712400514196</v>
+        <v>85.10712400514191</v>
       </c>
       <c r="S19" t="n">
-        <v>168.2535930516859</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>189.582538445509</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>253.5355075079039</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>64.90137806877738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>253.8116255716357</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>185.8732805871395</v>
       </c>
     </row>
     <row r="20">
@@ -24133,7 +24133,7 @@
         <v>115.9041002532571</v>
       </c>
       <c r="E22" t="n">
-        <v>113.7225898816139</v>
+        <v>64.00854585812908</v>
       </c>
       <c r="F22" t="n">
         <v>112.709675257976</v>
@@ -24145,7 +24145,7 @@
         <v>117.7554991105157</v>
       </c>
       <c r="I22" t="n">
-        <v>82.96090738668735</v>
+        <v>82.96090738668734</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>35.39307998165693</v>
+        <v>85.10712400514196</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>117.7554991105157</v>
       </c>
       <c r="I25" t="n">
-        <v>82.96090738668735</v>
+        <v>82.96090738668734</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>35.39307998165705</v>
+        <v>85.10712400514196</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>185.8732805871396</v>
+        <v>136.1592365636547</v>
       </c>
     </row>
     <row r="26">
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.1206074169821</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>83.32962180360144</v>
+        <v>134.5354483336726</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>115.9041002532571</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>113.7225898816139</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>112.709675257976</v>
       </c>
       <c r="G28" t="n">
-        <v>133.9568733935888</v>
+        <v>84.24282937010372</v>
       </c>
       <c r="H28" t="n">
         <v>117.7554991105157</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>85.10712400514197</v>
+        <v>85.10712400514196</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>189.582538445509</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>192.9982826240819</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>185.8732805871396</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>147.120607416982</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>134.5354483336726</v>
       </c>
       <c r="D31" t="n">
-        <v>53.02632220637904</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>113.7225898816139</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>112.709675257976</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>133.9568733935888</v>
       </c>
       <c r="H31" t="n">
-        <v>117.7554991105157</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>82.96090738668732</v>
@@ -24886,13 +24886,13 @@
         <v>85.10712400514194</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.2535930516859</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>242.1242274281914</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>83.19272748830181</v>
       </c>
       <c r="E34" t="n">
-        <v>81.0112171166586</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>34.45976991576784</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>85.04412634556041</v>
       </c>
       <c r="I34" t="n">
-        <v>50.24953462173201</v>
+        <v>50.24953462173205</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>121.6854066329711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>83.19272748830178</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>81.0112171166586</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>79.99830249302067</v>
       </c>
       <c r="G37" t="n">
-        <v>99.78425054917656</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>8.743911273380247</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.1619078221842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,16 +25546,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>114.4092346520267</v>
       </c>
       <c r="C40" t="n">
-        <v>101.8240755687173</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>83.19272748830178</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>55.34419623103303</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>50.24953462173202</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>17.67982069261</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>35.0229219581019</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>115.9041002532571</v>
+        <v>115.904100253257</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>89.54258416351477</v>
       </c>
       <c r="G43" t="n">
-        <v>133.9568733935888</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>85.10712400514191</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.2535930516858</v>
       </c>
       <c r="T43" t="n">
-        <v>189.582538445509</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>219.4262705588727</v>
+        <v>219.4262705588726</v>
       </c>
       <c r="W43" t="n">
-        <v>253.8116255716357</v>
+        <v>253.8116255716356</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>185.8732805871394</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>32.47191151175946</v>
       </c>
       <c r="E46" t="n">
-        <v>67.99231958640053</v>
+        <v>113.7225898816139</v>
       </c>
       <c r="F46" t="n">
-        <v>112.7096752579759</v>
+        <v>112.709675257976</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.9568733935889</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>117.7554991105157</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>82.96090738668735</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>85.10712400514197</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.2535930516859</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,16 +26080,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>219.4262705588727</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>253.8116255716357</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>192.9982826240818</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>185.8732805871394</v>
+        <v>185.8732805871396</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>836067.0097120079</v>
+        <v>836067.0097120077</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>836067.0097120079</v>
+        <v>836067.0097120081</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>836067.0097120079</v>
+        <v>836067.0097120081</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>836067.0097120079</v>
+        <v>836067.0097120081</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>836067.0097120081</v>
+        <v>836067.0097120079</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855719.6151665396</v>
+        <v>855719.6151665394</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>836067.0097120081</v>
+        <v>836067.0097120079</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049981</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
-        <v>557378.0064746719</v>
+        <v>557378.0064746717</v>
       </c>
       <c r="F2" t="n">
         <v>557378.006474672</v>
       </c>
       <c r="G2" t="n">
+        <v>557378.0064746722</v>
+      </c>
+      <c r="H2" t="n">
         <v>557378.006474672</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>557378.0064746722</v>
       </c>
-      <c r="I2" t="n">
-        <v>557378.006474672</v>
-      </c>
       <c r="J2" t="n">
-        <v>557378.006474672</v>
+        <v>557378.0064746718</v>
       </c>
       <c r="K2" t="n">
-        <v>557378.0064746717</v>
+        <v>557378.0064746721</v>
       </c>
       <c r="L2" t="n">
         <v>570479.743444359</v>
       </c>
       <c r="M2" t="n">
-        <v>570479.743444359</v>
+        <v>570479.7434443592</v>
       </c>
       <c r="N2" t="n">
-        <v>570479.743444359</v>
+        <v>570479.7434443592</v>
       </c>
       <c r="O2" t="n">
-        <v>557378.0064746718</v>
+        <v>557378.0064746724</v>
       </c>
       <c r="P2" t="n">
-        <v>557378.0064746722</v>
+        <v>557378.0064746715</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177988.4907831668</v>
+        <v>177988.4907831665</v>
       </c>
       <c r="C3" t="n">
-        <v>391573.4678838879</v>
+        <v>391573.4678838882</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>438063.3980197014</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>110037.558736206</v>
+        <v>110037.5587362059</v>
       </c>
       <c r="K3" t="n">
-        <v>91042.15318889856</v>
+        <v>91042.1531888988</v>
       </c>
       <c r="L3" t="n">
-        <v>26169.09821196426</v>
+        <v>26169.09821196424</v>
       </c>
       <c r="M3" t="n">
-        <v>105219.2375269714</v>
+        <v>105219.2375269715</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252352.7553920251</v>
+        <v>252352.7553920252</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,19 +26424,19 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>33782.83540617455</v>
+      </c>
+      <c r="F4" t="n">
         <v>33782.83540617464</v>
       </c>
-      <c r="F4" t="n">
-        <v>33782.83540617458</v>
-      </c>
       <c r="G4" t="n">
-        <v>33782.83540617458</v>
+        <v>33782.83540617461</v>
       </c>
       <c r="H4" t="n">
-        <v>33782.83540617458</v>
+        <v>33782.83540617461</v>
       </c>
       <c r="I4" t="n">
-        <v>33782.83540617458</v>
+        <v>33782.83540617459</v>
       </c>
       <c r="J4" t="n">
         <v>33782.83540617461</v>
@@ -26445,19 +26445,19 @@
         <v>33782.83540617461</v>
       </c>
       <c r="L4" t="n">
+        <v>44546.50723435447</v>
+      </c>
+      <c r="M4" t="n">
         <v>44546.50723435446</v>
       </c>
-      <c r="M4" t="n">
-        <v>44546.50723435451</v>
-      </c>
       <c r="N4" t="n">
-        <v>44546.50723435449</v>
+        <v>44546.50723435442</v>
       </c>
       <c r="O4" t="n">
-        <v>33782.83540617464</v>
+        <v>33782.83540617466</v>
       </c>
       <c r="P4" t="n">
-        <v>33782.83540617465</v>
+        <v>33782.83540617459</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54713.13125989681</v>
+        <v>54713.13125989679</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>85408.37568903157</v>
+        <v>85408.3756890316</v>
       </c>
       <c r="F5" t="n">
         <v>85408.37568903159</v>
@@ -26497,19 +26497,19 @@
         <v>85408.3756890316</v>
       </c>
       <c r="L5" t="n">
-        <v>88158.38808600862</v>
+        <v>88158.38808600861</v>
       </c>
       <c r="M5" t="n">
         <v>88158.38808600862</v>
       </c>
       <c r="N5" t="n">
-        <v>88158.38808600862</v>
+        <v>88158.38808600864</v>
       </c>
       <c r="O5" t="n">
-        <v>85408.37568903159</v>
+        <v>85408.3756890316</v>
       </c>
       <c r="P5" t="n">
-        <v>85408.37568903159</v>
+        <v>85408.3756890316</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89674.86146990936</v>
+        <v>89674.8614699099</v>
       </c>
       <c r="C6" t="n">
-        <v>-38762.44622291802</v>
+        <v>-38762.44622291811</v>
       </c>
       <c r="D6" t="n">
         <v>352811.0216609704</v>
       </c>
       <c r="E6" t="n">
-        <v>123.3973597643053</v>
+        <v>61.42867251292047</v>
       </c>
       <c r="F6" t="n">
-        <v>438186.7953794658</v>
+        <v>438124.8266922145</v>
       </c>
       <c r="G6" t="n">
-        <v>438186.7953794658</v>
+        <v>438124.8266922149</v>
       </c>
       <c r="H6" t="n">
-        <v>438186.795379466</v>
+        <v>438124.8266922146</v>
       </c>
       <c r="I6" t="n">
-        <v>438186.7953794658</v>
+        <v>438124.8266922149</v>
       </c>
       <c r="J6" t="n">
-        <v>328149.2366432598</v>
+        <v>328087.2679560085</v>
       </c>
       <c r="K6" t="n">
-        <v>347144.6421905669</v>
+        <v>347082.6735033159</v>
       </c>
       <c r="L6" t="n">
-        <v>411605.7499120318</v>
+        <v>411590.5731425294</v>
       </c>
       <c r="M6" t="n">
-        <v>332555.6105970246</v>
+        <v>332540.4338275224</v>
       </c>
       <c r="N6" t="n">
-        <v>437774.8481239959</v>
+        <v>437759.6713544939</v>
       </c>
       <c r="O6" t="n">
-        <v>438186.7953794656</v>
+        <v>438124.8266922149</v>
       </c>
       <c r="P6" t="n">
-        <v>438186.795379466</v>
+        <v>438124.8266922142</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="F2" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="G2" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="H2" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="I2" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="J2" t="n">
         <v>32.71137276495524</v>
@@ -26713,7 +26713,7 @@
         <v>32.71137276495525</v>
       </c>
       <c r="L2" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="M2" t="n">
         <v>65.42274552991057</v>
@@ -26722,10 +26722,10 @@
         <v>65.42274552991057</v>
       </c>
       <c r="O2" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="P2" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.23143701010002</v>
+        <v>73.23143701009982</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,19 +26744,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>733.5156835890438</v>
+        <v>733.5156835890439</v>
       </c>
       <c r="F3" t="n">
         <v>733.5156835890439</v>
       </c>
       <c r="G3" t="n">
-        <v>733.515683589044</v>
+        <v>733.5156835890439</v>
       </c>
       <c r="H3" t="n">
-        <v>733.515683589044</v>
+        <v>733.5156835890439</v>
       </c>
       <c r="I3" t="n">
-        <v>733.515683589044</v>
+        <v>733.5156835890439</v>
       </c>
       <c r="J3" t="n">
         <v>733.5156835890439</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>320.5441765308656</v>
+        <v>320.5441765308654</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>32.71137276495519</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9.237055564881302e-14</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-3.552713678800501e-14</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>32.7113727649552</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.35003119794419e-13</v>
+      </c>
+      <c r="L2" t="n">
         <v>32.71137276495529</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>32.71137276495529</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>32.71137276495532</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.23143701010002</v>
+        <v>73.23143701009982</v>
       </c>
       <c r="C3" t="n">
-        <v>304.5122272069866</v>
+        <v>304.5122272069868</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>355.7720193719571</v>
+        <v>355.7720193719572</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>320.5441765308656</v>
+        <v>320.5441765308654</v>
       </c>
       <c r="C4" t="n">
-        <v>353.7430962236899</v>
+        <v>353.7430962236902</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>422.2213027357963</v>
+        <v>422.2213027357967</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>320.5441765308656</v>
+        <v>320.5441765308654</v>
       </c>
       <c r="K4" t="n">
-        <v>353.7430962236899</v>
+        <v>353.7430962236902</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>422.2213027357963</v>
+        <v>422.2213027357966</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>32.71137276495529</v>
+        <v>32.7113727649552</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.35003119794419e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>320.5441765308656</v>
+        <v>320.5441765308654</v>
       </c>
       <c r="K4" t="n">
-        <v>353.7430962236899</v>
+        <v>353.7430962236902</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>422.2213027357963</v>
+        <v>422.2213027357967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>62.18966513261495</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>34.13886508981733</v>
+        <v>34.13886508981756</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>270.9252309433954</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>94.46416324754563</v>
       </c>
       <c r="H2" t="n">
-        <v>336.4598012945423</v>
+        <v>15.91562476367687</v>
       </c>
       <c r="I2" t="n">
-        <v>199.1261208253531</v>
+        <v>199.1261208253532</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>131.3761561116595</v>
       </c>
       <c r="S2" t="n">
         <v>202.3114811606467</v>
       </c>
       <c r="T2" t="n">
-        <v>221.807123471622</v>
+        <v>197.6699596138457</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3221010888986</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>28.69679218654738</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>10.04355799303272</v>
       </c>
       <c r="G3" t="n">
         <v>137.1860004873776</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>110.7141647620036</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>83.97336133698788</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>90.37798299872826</v>
+        <v>90.37798299872829</v>
       </c>
       <c r="S3" t="n">
         <v>168.7573679365003</v>
       </c>
       <c r="T3" t="n">
-        <v>116.1144687616907</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9310191417753</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174.6117584273557</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,10 +27558,10 @@
         <v>151.4791701136614</v>
       </c>
       <c r="J4" t="n">
-        <v>84.02277215556543</v>
+        <v>84.02277215556546</v>
       </c>
       <c r="K4" t="n">
-        <v>6.926905514586492</v>
+        <v>6.926905514586533</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>75.10409626316928</v>
+        <v>75.10409626316931</v>
       </c>
       <c r="R4" t="n">
         <v>171.3556424025473</v>
@@ -27594,7 +27594,7 @@
         <v>286.311826264326</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>28.33276821715197</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>334.7392711152822</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27667,7 +27667,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>196.9959193870525</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27743,13 +27743,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>19.54885516659951</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>393.7163208359958</v>
+        <v>37.74728150147314</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>10.74592769735776</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="C11" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="D11" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="E11" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="F11" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="G11" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="H11" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="I11" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="T11" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="U11" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="V11" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="W11" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="X11" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="Y11" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="C13" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="D13" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="E13" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="F13" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="G13" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="H13" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="I13" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="J13" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="K13" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="L13" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="M13" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="N13" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="O13" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="P13" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="R13" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="S13" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="T13" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="U13" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="V13" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="W13" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="X13" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495519</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="C14" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="D14" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="E14" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="F14" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="G14" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="H14" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="I14" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="T14" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="U14" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="V14" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="W14" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="X14" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="Y14" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="C16" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="D16" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="E16" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="F16" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="G16" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="H16" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="I16" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="J16" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="K16" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="L16" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="M16" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="N16" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="O16" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="P16" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="Q16" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="R16" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="S16" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="T16" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="U16" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="V16" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="W16" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="X16" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="C17" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="D17" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="E17" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="F17" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="G17" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="H17" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="I17" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495455</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="T17" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="U17" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="V17" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="W17" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="X17" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="Y17" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="C19" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="D19" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="E19" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="F19" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="G19" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="H19" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="I19" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="J19" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="K19" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="L19" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="M19" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="N19" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="O19" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="P19" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="R19" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="S19" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="T19" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="U19" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="V19" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="W19" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="X19" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495528</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="C20" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="D20" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="E20" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="F20" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="G20" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="H20" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="I20" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="T20" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="U20" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="V20" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="W20" t="n">
-        <v>32.71137276495517</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="X20" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="Y20" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="C22" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="D22" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="E22" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="F22" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="G22" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="H22" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="I22" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="J22" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="K22" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="L22" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="M22" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="N22" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="O22" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="P22" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="Q22" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="R22" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="S22" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="T22" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="U22" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="V22" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="W22" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="X22" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="C23" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="D23" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="E23" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="F23" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="G23" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="H23" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="I23" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="T23" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="U23" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="V23" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="W23" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495517</v>
       </c>
       <c r="X23" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="Y23" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="C25" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="D25" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="E25" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="F25" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="G25" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="H25" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="I25" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="J25" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="K25" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="L25" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="M25" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="N25" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="O25" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="P25" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="Q25" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="R25" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="S25" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="T25" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="U25" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="V25" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="W25" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="X25" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.71137276495523</v>
+        <v>32.71137276495524</v>
       </c>
     </row>
     <row r="26">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="E32" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="F32" t="n">
-        <v>65.42274552991057</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="H32" t="n">
-        <v>32.7113727649546</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="I32" t="n">
-        <v>65.42274552991057</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>65.42274552991057</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29806,13 +29806,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>32.71137276495534</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="C34" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="D34" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="E34" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="F34" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="G34" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="H34" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="I34" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="J34" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="K34" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="L34" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="M34" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="N34" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="O34" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="P34" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="R34" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="S34" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="T34" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="U34" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="V34" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="W34" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="X34" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
       <c r="Y34" t="n">
-        <v>65.42274552991057</v>
+        <v>65.42274552991054</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>65.42274552991057</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>65.42274552991057</v>
       </c>
       <c r="D35" t="n">
-        <v>32.71137276495563</v>
+        <v>65.42274552991057</v>
       </c>
       <c r="E35" t="n">
         <v>65.42274552991057</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>65.42274552991057</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>65.42274552991057</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>32.71137276495473</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,19 +30034,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>65.42274552991057</v>
       </c>
       <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>65.42274552991057</v>
       </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>65.42274552991057</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30226,16 +30226,16 @@
         <v>65.42274552991057</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>65.42274552991057</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>65.42274552991057</v>
       </c>
       <c r="G38" t="n">
-        <v>65.42274552991057</v>
+        <v>32.71137276495369</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>65.42274552991057</v>
       </c>
       <c r="T38" t="n">
-        <v>32.71137276495529</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>65.42274552991057</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="C41" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="D41" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="E41" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="F41" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="G41" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="H41" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="I41" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="T41" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495395</v>
       </c>
       <c r="U41" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="V41" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="W41" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="X41" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="Y41" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="C43" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="D43" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="E43" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="F43" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="G43" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="H43" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="I43" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="J43" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="K43" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="L43" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="M43" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="N43" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="O43" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="P43" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="Q43" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="R43" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="S43" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="T43" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="U43" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="V43" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="W43" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="X43" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.71137276495529</v>
+        <v>32.71137276495537</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="C44" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="D44" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="E44" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="F44" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="G44" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="H44" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="I44" t="n">
-        <v>32.71137276495431</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="T44" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="U44" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="V44" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="W44" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="X44" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="Y44" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="C46" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="D46" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="E46" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="F46" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="G46" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="H46" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="I46" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="J46" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="K46" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="L46" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="M46" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="N46" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="O46" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="P46" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="Q46" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="R46" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="S46" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="T46" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="U46" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="V46" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="W46" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="X46" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.71137276495534</v>
+        <v>32.71137276495524</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.29439773672402</v>
+        <v>0.2943977367240192</v>
       </c>
       <c r="H2" t="n">
-        <v>3.01500082122487</v>
+        <v>3.015000821224862</v>
       </c>
       <c r="I2" t="n">
-        <v>11.34976874505279</v>
+        <v>11.34976874505276</v>
       </c>
       <c r="J2" t="n">
-        <v>24.98663990728031</v>
+        <v>24.98663990728025</v>
       </c>
       <c r="K2" t="n">
-        <v>37.44849610280809</v>
+        <v>37.44849610280799</v>
       </c>
       <c r="L2" t="n">
-        <v>46.45817083807582</v>
+        <v>46.4581708380757</v>
       </c>
       <c r="M2" t="n">
-        <v>51.69366658854161</v>
+        <v>51.69366658854147</v>
       </c>
       <c r="N2" t="n">
-        <v>52.53012415800874</v>
+        <v>52.53012415800859</v>
       </c>
       <c r="O2" t="n">
-        <v>49.60270666345926</v>
+        <v>49.60270666345912</v>
       </c>
       <c r="P2" t="n">
-        <v>42.33476253808501</v>
+        <v>42.3347625380849</v>
       </c>
       <c r="Q2" t="n">
-        <v>31.79164359165603</v>
+        <v>31.79164359165595</v>
       </c>
       <c r="R2" t="n">
-        <v>18.49296182949024</v>
+        <v>18.49296182949018</v>
       </c>
       <c r="S2" t="n">
-        <v>6.708588425598612</v>
+        <v>6.708588425598593</v>
       </c>
       <c r="T2" t="n">
-        <v>1.288726092509398</v>
+        <v>1.288726092509395</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02355181893792159</v>
+        <v>0.02355181893792153</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1575166758330453</v>
+        <v>0.1575166758330449</v>
       </c>
       <c r="H3" t="n">
-        <v>1.521279474492833</v>
+        <v>1.521279474492829</v>
       </c>
       <c r="I3" t="n">
-        <v>5.42327151442722</v>
+        <v>5.423271514427205</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -31148,19 +31148,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>20.10686549756558</v>
+        <v>20.10686549756553</v>
       </c>
       <c r="R3" t="n">
-        <v>9.779851153914871</v>
+        <v>9.779851153914844</v>
       </c>
       <c r="S3" t="n">
-        <v>2.925803167337485</v>
+        <v>2.925803167337477</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6349027416253009</v>
+        <v>0.6349027416252992</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01036293919954246</v>
+        <v>0.01036293919954243</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1320566896903443</v>
+        <v>0.1320566896903439</v>
       </c>
       <c r="H4" t="n">
-        <v>1.174104022883244</v>
+        <v>1.17410402288324</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9713048135969</v>
+        <v>3.97130481359689</v>
       </c>
       <c r="J4" t="n">
-        <v>9.336407961107341</v>
+        <v>9.336407961107316</v>
       </c>
       <c r="K4" t="n">
-        <v>15.34258631129636</v>
+        <v>15.34258631129632</v>
       </c>
       <c r="L4" t="n">
-        <v>19.63322821087174</v>
+        <v>19.63322821087168</v>
       </c>
       <c r="M4" t="n">
-        <v>20.70048636664188</v>
+        <v>20.70048636664182</v>
       </c>
       <c r="N4" t="n">
-        <v>20.20827506870516</v>
+        <v>20.2082750687051</v>
       </c>
       <c r="O4" t="n">
-        <v>18.66561283004976</v>
+        <v>18.66561283004971</v>
       </c>
       <c r="P4" t="n">
-        <v>15.97165636036672</v>
+        <v>15.97165636036668</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.0579469885251</v>
+        <v>11.05794698852507</v>
       </c>
       <c r="R4" t="n">
-        <v>5.937748974622206</v>
+        <v>5.93774897462219</v>
       </c>
       <c r="S4" t="n">
-        <v>2.301387946694454</v>
+        <v>2.301387946694447</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5642422195860164</v>
+        <v>0.5642422195860148</v>
       </c>
       <c r="U4" t="n">
-        <v>0.007203092164927879</v>
+        <v>0.007203092164927859</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31367,7 +31367,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423905</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,7 +31382,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
@@ -31601,7 +31601,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31616,13 +31616,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>177.5954266578334</v>
       </c>
       <c r="P9" t="n">
-        <v>111.734380307287</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034982</v>
@@ -31759,19 +31759,19 @@
         <v>113.6838729309211</v>
       </c>
       <c r="J11" t="n">
-        <v>250.2762884422738</v>
+        <v>250.2762884422739</v>
       </c>
       <c r="K11" t="n">
-        <v>375.0992789400596</v>
+        <v>375.0992789400597</v>
       </c>
       <c r="L11" t="n">
-        <v>465.3438240722735</v>
+        <v>465.3438240722736</v>
       </c>
       <c r="M11" t="n">
-        <v>517.7846664361997</v>
+        <v>517.7846664361998</v>
       </c>
       <c r="N11" t="n">
-        <v>526.1629636663399</v>
+        <v>526.16296366634</v>
       </c>
       <c r="O11" t="n">
         <v>496.8407663650794</v>
@@ -31780,19 +31780,19 @@
         <v>424.042099275212</v>
       </c>
       <c r="Q11" t="n">
-        <v>318.4379568891511</v>
+        <v>318.4379568891512</v>
       </c>
       <c r="R11" t="n">
         <v>185.2329831527649</v>
       </c>
       <c r="S11" t="n">
-        <v>67.19593423029282</v>
+        <v>67.19593423029283</v>
       </c>
       <c r="T11" t="n">
         <v>12.90840162778307</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2359045414557726</v>
+        <v>0.2359045414557727</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.577750715644358</v>
+        <v>1.577750715644359</v>
       </c>
       <c r="H12" t="n">
         <v>15.23775033267052</v>
       </c>
       <c r="I12" t="n">
-        <v>54.3216803412641</v>
+        <v>54.32168034126411</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -31844,10 +31844,10 @@
         <v>254.7721407801682</v>
       </c>
       <c r="L12" t="n">
-        <v>342.5725841139209</v>
+        <v>342.572584113921</v>
       </c>
       <c r="M12" t="n">
-        <v>399.7660475560288</v>
+        <v>203.661416552845</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -31856,19 +31856,19 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>35.08104244226976</v>
+        <v>301.2811870952811</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>97.9589435555331</v>
+        <v>97.95894355553311</v>
       </c>
       <c r="S12" t="n">
-        <v>29.30602754716602</v>
+        <v>29.30602754716603</v>
       </c>
       <c r="T12" t="n">
-        <v>6.359442577531424</v>
+        <v>6.359442577531425</v>
       </c>
       <c r="U12" t="n">
         <v>0.1037993891871289</v>
@@ -31917,7 +31917,7 @@
         <v>39.7781947756157</v>
       </c>
       <c r="J13" t="n">
-        <v>93.51723723396709</v>
+        <v>93.51723723396711</v>
       </c>
       <c r="K13" t="n">
         <v>153.6775481355406</v>
@@ -31929,10 +31929,10 @@
         <v>207.3444415102603</v>
       </c>
       <c r="N13" t="n">
-        <v>202.4142541287603</v>
+        <v>202.4142541287604</v>
       </c>
       <c r="O13" t="n">
-        <v>186.9623253843025</v>
+        <v>186.9623253843026</v>
       </c>
       <c r="P13" t="n">
         <v>159.9785681060432</v>
@@ -31941,16 +31941,16 @@
         <v>110.7608682219456</v>
       </c>
       <c r="R13" t="n">
-        <v>59.47489460707228</v>
+        <v>59.47489460707229</v>
       </c>
       <c r="S13" t="n">
         <v>23.05163222033109</v>
       </c>
       <c r="T13" t="n">
-        <v>5.651678217817221</v>
+        <v>5.651678217817222</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0721490836317093</v>
+        <v>0.07214908363170931</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>54.32168034126411</v>
       </c>
       <c r="J15" t="n">
-        <v>131.3309181824097</v>
+        <v>149.0628428319962</v>
       </c>
       <c r="K15" t="n">
         <v>254.7721407801682</v>
@@ -32084,7 +32084,7 @@
         <v>342.572584113921</v>
       </c>
       <c r="M15" t="n">
-        <v>399.7660475560289</v>
+        <v>382.0341229064424</v>
       </c>
       <c r="N15" t="n">
         <v>410.346665293837</v>
@@ -32227,7 +32227,7 @@
         <v>2.948806768197159</v>
       </c>
       <c r="H17" t="n">
-        <v>30.19946731479917</v>
+        <v>30.19946731479916</v>
       </c>
       <c r="I17" t="n">
         <v>113.6838729309211</v>
@@ -32239,25 +32239,25 @@
         <v>375.0992789400597</v>
       </c>
       <c r="L17" t="n">
-        <v>465.3438240722737</v>
+        <v>465.3438240722736</v>
       </c>
       <c r="M17" t="n">
         <v>517.7846664361998</v>
       </c>
       <c r="N17" t="n">
-        <v>526.1629636663401</v>
+        <v>526.16296366634</v>
       </c>
       <c r="O17" t="n">
-        <v>496.8407663650796</v>
+        <v>496.8407663650794</v>
       </c>
       <c r="P17" t="n">
-        <v>424.0420992752121</v>
+        <v>424.042099275212</v>
       </c>
       <c r="Q17" t="n">
         <v>318.4379568891512</v>
       </c>
       <c r="R17" t="n">
-        <v>185.232983152765</v>
+        <v>185.2329831527649</v>
       </c>
       <c r="S17" t="n">
         <v>67.19593423029283</v>
@@ -32312,37 +32312,37 @@
         <v>54.32168034126411</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>149.0628428319962</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>254.7721407801682</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>342.572584113921</v>
       </c>
       <c r="M18" t="n">
-        <v>374.1822086992892</v>
+        <v>399.7660475560289</v>
       </c>
       <c r="N18" t="n">
-        <v>410.346665293837</v>
+        <v>392.614740644251</v>
       </c>
       <c r="O18" t="n">
-        <v>375.387031015612</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>301.2811870952812</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>97.95894355553312</v>
+        <v>97.95894355553311</v>
       </c>
       <c r="S18" t="n">
         <v>29.30602754716603</v>
       </c>
       <c r="T18" t="n">
-        <v>6.359442577531427</v>
+        <v>6.359442577531425</v>
       </c>
       <c r="U18" t="n">
         <v>0.1037993891871289</v>
@@ -32391,7 +32391,7 @@
         <v>39.7781947756157</v>
       </c>
       <c r="J19" t="n">
-        <v>93.51723723396712</v>
+        <v>93.51723723396711</v>
       </c>
       <c r="K19" t="n">
         <v>153.6775481355406</v>
@@ -32400,7 +32400,7 @@
         <v>196.6543522854955</v>
       </c>
       <c r="M19" t="n">
-        <v>207.3444415102604</v>
+        <v>207.3444415102603</v>
       </c>
       <c r="N19" t="n">
         <v>202.4142541287604</v>
@@ -32415,7 +32415,7 @@
         <v>110.7608682219456</v>
       </c>
       <c r="R19" t="n">
-        <v>59.4748946070723</v>
+        <v>59.47489460707229</v>
       </c>
       <c r="S19" t="n">
         <v>23.05163222033109</v>
@@ -32424,7 +32424,7 @@
         <v>5.651678217817222</v>
       </c>
       <c r="U19" t="n">
-        <v>0.07214908363170933</v>
+        <v>0.07214908363170931</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>2.948806768197159</v>
       </c>
       <c r="H20" t="n">
-        <v>30.19946731479917</v>
+        <v>30.19946731479916</v>
       </c>
       <c r="I20" t="n">
         <v>113.6838729309211</v>
@@ -32476,25 +32476,25 @@
         <v>375.0992789400597</v>
       </c>
       <c r="L20" t="n">
-        <v>465.3438240722737</v>
+        <v>465.3438240722736</v>
       </c>
       <c r="M20" t="n">
         <v>517.7846664361998</v>
       </c>
       <c r="N20" t="n">
-        <v>526.1629636663401</v>
+        <v>526.16296366634</v>
       </c>
       <c r="O20" t="n">
-        <v>496.8407663650796</v>
+        <v>496.8407663650794</v>
       </c>
       <c r="P20" t="n">
-        <v>424.0420992752121</v>
+        <v>424.042099275212</v>
       </c>
       <c r="Q20" t="n">
         <v>318.4379568891512</v>
       </c>
       <c r="R20" t="n">
-        <v>185.232983152765</v>
+        <v>185.2329831527649</v>
       </c>
       <c r="S20" t="n">
         <v>67.19593423029283</v>
@@ -32549,37 +32549,37 @@
         <v>54.32168034126411</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>149.0628428319962</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>254.7721407801682</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>342.572584113921</v>
       </c>
       <c r="M21" t="n">
-        <v>102.6882001893151</v>
+        <v>399.7660475560289</v>
       </c>
       <c r="N21" t="n">
         <v>410.346665293837</v>
       </c>
       <c r="O21" t="n">
-        <v>375.387031015612</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>301.2811870952812</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>201.3984948601466</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>97.95894355553312</v>
+        <v>97.95894355553311</v>
       </c>
       <c r="S21" t="n">
         <v>29.30602754716603</v>
       </c>
       <c r="T21" t="n">
-        <v>6.359442577531427</v>
+        <v>6.359442577531425</v>
       </c>
       <c r="U21" t="n">
         <v>0.1037993891871289</v>
@@ -32628,7 +32628,7 @@
         <v>39.7781947756157</v>
       </c>
       <c r="J22" t="n">
-        <v>93.51723723396712</v>
+        <v>93.51723723396711</v>
       </c>
       <c r="K22" t="n">
         <v>153.6775481355406</v>
@@ -32637,7 +32637,7 @@
         <v>196.6543522854955</v>
       </c>
       <c r="M22" t="n">
-        <v>207.3444415102604</v>
+        <v>207.3444415102603</v>
       </c>
       <c r="N22" t="n">
         <v>202.4142541287604</v>
@@ -32652,7 +32652,7 @@
         <v>110.7608682219456</v>
       </c>
       <c r="R22" t="n">
-        <v>59.4748946070723</v>
+        <v>59.47489460707229</v>
       </c>
       <c r="S22" t="n">
         <v>23.05163222033109</v>
@@ -32661,7 +32661,7 @@
         <v>5.651678217817222</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07214908363170933</v>
+        <v>0.07214908363170931</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>2.948806768197159</v>
       </c>
       <c r="H23" t="n">
-        <v>30.19946731479917</v>
+        <v>30.19946731479916</v>
       </c>
       <c r="I23" t="n">
         <v>113.6838729309211</v>
@@ -32713,25 +32713,25 @@
         <v>375.0992789400597</v>
       </c>
       <c r="L23" t="n">
-        <v>465.3438240722737</v>
+        <v>465.3438240722736</v>
       </c>
       <c r="M23" t="n">
         <v>517.7846664361998</v>
       </c>
       <c r="N23" t="n">
-        <v>526.1629636663401</v>
+        <v>526.16296366634</v>
       </c>
       <c r="O23" t="n">
-        <v>496.8407663650796</v>
+        <v>496.8407663650794</v>
       </c>
       <c r="P23" t="n">
-        <v>424.0420992752121</v>
+        <v>424.042099275212</v>
       </c>
       <c r="Q23" t="n">
         <v>318.4379568891512</v>
       </c>
       <c r="R23" t="n">
-        <v>185.232983152765</v>
+        <v>185.2329831527649</v>
       </c>
       <c r="S23" t="n">
         <v>67.19593423029283</v>
@@ -32786,10 +32786,10 @@
         <v>54.32168034126411</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>149.0628428319962</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>20.73377557652236</v>
       </c>
       <c r="L24" t="n">
         <v>342.572584113921</v>
@@ -32801,22 +32801,22 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>375.387031015612</v>
+        <v>375.3870310156119</v>
       </c>
       <c r="P24" t="n">
-        <v>301.2811870952812</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>97.95894355553312</v>
+        <v>97.95894355553311</v>
       </c>
       <c r="S24" t="n">
         <v>29.30602754716603</v>
       </c>
       <c r="T24" t="n">
-        <v>6.359442577531427</v>
+        <v>6.359442577531425</v>
       </c>
       <c r="U24" t="n">
         <v>0.1037993891871289</v>
@@ -32865,7 +32865,7 @@
         <v>39.7781947756157</v>
       </c>
       <c r="J25" t="n">
-        <v>93.51723723396712</v>
+        <v>93.51723723396711</v>
       </c>
       <c r="K25" t="n">
         <v>153.6775481355406</v>
@@ -32874,7 +32874,7 @@
         <v>196.6543522854955</v>
       </c>
       <c r="M25" t="n">
-        <v>207.3444415102604</v>
+        <v>207.3444415102603</v>
       </c>
       <c r="N25" t="n">
         <v>202.4142541287604</v>
@@ -32889,7 +32889,7 @@
         <v>110.7608682219456</v>
       </c>
       <c r="R25" t="n">
-        <v>59.4748946070723</v>
+        <v>59.47489460707229</v>
       </c>
       <c r="S25" t="n">
         <v>23.05163222033109</v>
@@ -32898,7 +32898,7 @@
         <v>5.651678217817222</v>
       </c>
       <c r="U25" t="n">
-        <v>0.07214908363170933</v>
+        <v>0.07214908363170931</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,22 +33023,22 @@
         <v>54.32168034126411</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>149.0628428319962</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>254.7721407801682</v>
       </c>
       <c r="L27" t="n">
-        <v>227.8997439405642</v>
+        <v>342.572584113921</v>
       </c>
       <c r="M27" t="n">
         <v>399.7660475560289</v>
       </c>
       <c r="N27" t="n">
-        <v>410.346665293837</v>
+        <v>392.614740644251</v>
       </c>
       <c r="O27" t="n">
-        <v>375.3870310156119</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -33260,13 +33260,13 @@
         <v>54.32168034126411</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>149.0628428319962</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>237.0402161305821</v>
       </c>
       <c r="L30" t="n">
-        <v>227.8997439405642</v>
+        <v>342.572584113921</v>
       </c>
       <c r="M30" t="n">
         <v>399.7660475560289</v>
@@ -33275,7 +33275,7 @@
         <v>410.346665293837</v>
       </c>
       <c r="O30" t="n">
-        <v>375.3870310156119</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -33497,28 +33497,28 @@
         <v>54.32168034126411</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>149.0628428319962</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>254.7721407801682</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>342.572584113921</v>
       </c>
       <c r="M33" t="n">
-        <v>102.6882001893152</v>
+        <v>382.0341229064424</v>
       </c>
       <c r="N33" t="n">
         <v>410.346665293837</v>
       </c>
       <c r="O33" t="n">
-        <v>375.3870310156119</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>301.2811870952811</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>201.3984948601466</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>97.95894355553311</v>
@@ -33734,28 +33734,28 @@
         <v>54.32168034126411</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>254.7721407801682</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>221.8908361377879</v>
       </c>
       <c r="M36" t="n">
-        <v>102.6882001893152</v>
+        <v>399.7660475560289</v>
       </c>
       <c r="N36" t="n">
         <v>410.346665293837</v>
       </c>
       <c r="O36" t="n">
-        <v>375.3870310156119</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>301.2811870952811</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>201.3984948601466</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>97.95894355553311</v>
@@ -33907,7 +33907,7 @@
         <v>526.16296366634</v>
       </c>
       <c r="O38" t="n">
-        <v>496.84076636508</v>
+        <v>496.8407663650794</v>
       </c>
       <c r="P38" t="n">
         <v>424.042099275212</v>
@@ -33971,28 +33971,28 @@
         <v>54.32168034126411</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>149.0628428319962</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>254.7721407801682</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>324.8406594643349</v>
       </c>
       <c r="M39" t="n">
-        <v>102.6882001893152</v>
+        <v>399.7660475560289</v>
       </c>
       <c r="N39" t="n">
         <v>410.346665293837</v>
       </c>
       <c r="O39" t="n">
-        <v>375.3870310156119</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>301.2811870952811</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>201.3984948601466</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>97.95894355553311</v>
@@ -34208,25 +34208,25 @@
         <v>54.32168034126411</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>149.0628428319962</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>254.7721407801682</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>342.572584113921</v>
       </c>
       <c r="M42" t="n">
         <v>399.7660475560289</v>
       </c>
       <c r="N42" t="n">
-        <v>384.7628264370975</v>
+        <v>410.346665293837</v>
       </c>
       <c r="O42" t="n">
-        <v>375.3870310156119</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>301.2811870952811</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -34378,7 +34378,7 @@
         <v>517.7846664361998</v>
       </c>
       <c r="N44" t="n">
-        <v>526.16296366634</v>
+        <v>526.1629636663413</v>
       </c>
       <c r="O44" t="n">
         <v>496.8407663650794</v>
@@ -34445,22 +34445,22 @@
         <v>54.32168034126411</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>149.0628428319962</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>254.7721407801682</v>
       </c>
       <c r="L45" t="n">
-        <v>227.8997439405638</v>
+        <v>342.572584113921</v>
       </c>
       <c r="M45" t="n">
-        <v>399.7660475560289</v>
+        <v>382.0341229064429</v>
       </c>
       <c r="N45" t="n">
         <v>410.346665293837</v>
       </c>
       <c r="O45" t="n">
-        <v>375.3870310156119</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.0373505526678</v>
+        <v>13.03735055266773</v>
       </c>
       <c r="K2" t="n">
-        <v>141.5040576289923</v>
+        <v>141.5040576289922</v>
       </c>
       <c r="L2" t="n">
-        <v>228.352970418539</v>
+        <v>228.3529704185389</v>
       </c>
       <c r="M2" t="n">
-        <v>270.8609668541014</v>
+        <v>270.8609668541012</v>
       </c>
       <c r="N2" t="n">
-        <v>260.463984973402</v>
+        <v>260.4639849734018</v>
       </c>
       <c r="O2" t="n">
-        <v>200.3046765045179</v>
+        <v>200.3046765045177</v>
       </c>
       <c r="P2" t="n">
-        <v>132.9004749542981</v>
+        <v>132.900474954298</v>
       </c>
       <c r="Q2" t="n">
-        <v>21.80094437711123</v>
+        <v>21.80094437711114</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>121.1603673053128</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>63.81467096567413</v>
+        <v>320.5441765308654</v>
       </c>
       <c r="N3" t="n">
-        <v>320.5441765308656</v>
+        <v>320.5441765308654</v>
       </c>
       <c r="O3" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.20237914739316</v>
+        <v>90.2023791473931</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.22325347118787</v>
+        <v>47.22325347118782</v>
       </c>
       <c r="M4" t="n">
-        <v>60.28436332848246</v>
+        <v>60.28436332848241</v>
       </c>
       <c r="N4" t="n">
-        <v>64.34044744793374</v>
+        <v>64.34044744793368</v>
       </c>
       <c r="O4" t="n">
-        <v>43.25074074408944</v>
+        <v>43.25074074408938</v>
       </c>
       <c r="P4" t="n">
-        <v>13.25021562526021</v>
+        <v>13.25021562526017</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>428.8615014901185</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>238.3269990876613</v>
       </c>
       <c r="K11" t="n">
-        <v>479.1548404662438</v>
+        <v>479.1548404662439</v>
       </c>
       <c r="L11" t="n">
-        <v>647.2386236527367</v>
+        <v>647.2386236527368</v>
       </c>
       <c r="M11" t="n">
-        <v>736.9519667017595</v>
+        <v>736.9519667017596</v>
       </c>
       <c r="N11" t="n">
-        <v>734.0968244817332</v>
+        <v>734.0968244817333</v>
       </c>
       <c r="O11" t="n">
-        <v>647.542736206138</v>
+        <v>647.5427362061381</v>
       </c>
       <c r="P11" t="n">
-        <v>514.607811691425</v>
+        <v>514.6078116914251</v>
       </c>
       <c r="Q11" t="n">
-        <v>308.4472576746063</v>
+        <v>308.4472576746064</v>
       </c>
       <c r="R11" t="n">
-        <v>35.36386521161523</v>
+        <v>35.36386521161526</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>381.3959388183878</v>
       </c>
       <c r="L12" t="n">
-        <v>574.8585496375059</v>
+        <v>574.858549637506</v>
       </c>
       <c r="M12" t="n">
-        <v>723.3370773840104</v>
+        <v>527.2324463808266</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
@@ -35504,10 +35504,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>219.5694036678767</v>
+        <v>485.769548320888</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>32.86942988224961</v>
+        <v>32.86942988224952</v>
       </c>
       <c r="K13" t="n">
-        <v>164.119429074613</v>
+        <v>164.1194290746129</v>
       </c>
       <c r="L13" t="n">
-        <v>256.9557503107669</v>
+        <v>256.9557503107668</v>
       </c>
       <c r="M13" t="n">
-        <v>279.6396912370562</v>
+        <v>279.6396912370561</v>
       </c>
       <c r="N13" t="n">
         <v>279.2577992729442</v>
       </c>
       <c r="O13" t="n">
-        <v>244.2588260632975</v>
+        <v>244.2588260632974</v>
       </c>
       <c r="P13" t="n">
         <v>189.9685001358919</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.3101977352065</v>
+        <v>57.31019773520643</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>130.5843268561518</v>
+        <v>148.3162515057383</v>
       </c>
       <c r="K15" t="n">
         <v>381.3959388183878</v>
@@ -35732,7 +35732,7 @@
         <v>574.858549637506</v>
       </c>
       <c r="M15" t="n">
-        <v>723.3370773840104</v>
+        <v>705.605152734424</v>
       </c>
       <c r="N15" t="n">
         <v>758.3473275540572</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.86942988224956</v>
+        <v>32.86942988224961</v>
       </c>
       <c r="K16" t="n">
         <v>164.119429074613</v>
@@ -35811,7 +35811,7 @@
         <v>256.9557503107669</v>
       </c>
       <c r="M16" t="n">
-        <v>279.6396912370561</v>
+        <v>279.6396912370562</v>
       </c>
       <c r="N16" t="n">
         <v>279.2577992729442</v>
@@ -35820,10 +35820,10 @@
         <v>244.2588260632975</v>
       </c>
       <c r="P16" t="n">
-        <v>189.9685001358919</v>
+        <v>189.968500135892</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.31019773520647</v>
+        <v>57.31019773520652</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>238.3269990876614</v>
+        <v>238.3269990876613</v>
       </c>
       <c r="K17" t="n">
         <v>479.1548404662439</v>
@@ -35893,19 +35893,19 @@
         <v>736.9519667017596</v>
       </c>
       <c r="N17" t="n">
-        <v>734.0968244817334</v>
+        <v>734.0968244817333</v>
       </c>
       <c r="O17" t="n">
-        <v>647.5427362061382</v>
+        <v>647.5427362061381</v>
       </c>
       <c r="P17" t="n">
-        <v>514.6078116914252</v>
+        <v>514.6078116914251</v>
       </c>
       <c r="Q17" t="n">
         <v>308.4472576746064</v>
       </c>
       <c r="R17" t="n">
-        <v>35.36386521161529</v>
+        <v>35.36386521161526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>148.3162515057383</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>381.3959388183878</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>574.858549637506</v>
       </c>
       <c r="M18" t="n">
-        <v>697.7532385272708</v>
+        <v>723.3370773840104</v>
       </c>
       <c r="N18" t="n">
-        <v>758.3473275540573</v>
+        <v>740.6154029044712</v>
       </c>
       <c r="O18" t="n">
-        <v>626.653105847897</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>485.7695483208881</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>32.86942988224958</v>
+        <v>32.86942988224961</v>
       </c>
       <c r="K19" t="n">
         <v>164.119429074613</v>
@@ -36057,10 +36057,10 @@
         <v>244.2588260632975</v>
       </c>
       <c r="P19" t="n">
-        <v>189.9685001358919</v>
+        <v>189.968500135892</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.31019773520649</v>
+        <v>57.31019773520652</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>238.3269990876614</v>
+        <v>238.3269990876613</v>
       </c>
       <c r="K20" t="n">
         <v>479.1548404662439</v>
@@ -36130,19 +36130,19 @@
         <v>736.9519667017596</v>
       </c>
       <c r="N20" t="n">
-        <v>734.0968244817334</v>
+        <v>734.0968244817333</v>
       </c>
       <c r="O20" t="n">
-        <v>647.5427362061382</v>
+        <v>647.5427362061381</v>
       </c>
       <c r="P20" t="n">
-        <v>514.6078116914252</v>
+        <v>514.6078116914251</v>
       </c>
       <c r="Q20" t="n">
         <v>308.4472576746064</v>
       </c>
       <c r="R20" t="n">
-        <v>35.36386521161529</v>
+        <v>35.36386521161526</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>148.3162515057383</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>381.3959388183878</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>574.858549637506</v>
       </c>
       <c r="M21" t="n">
-        <v>426.2592300172967</v>
+        <v>723.3370773840104</v>
       </c>
       <c r="N21" t="n">
-        <v>758.3473275540573</v>
+        <v>740.6154029044712</v>
       </c>
       <c r="O21" t="n">
-        <v>626.653105847897</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>485.7695483208881</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>271.4940085099742</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>238.3269990876614</v>
+        <v>238.3269990876613</v>
       </c>
       <c r="K23" t="n">
         <v>479.1548404662439</v>
@@ -36367,19 +36367,19 @@
         <v>736.9519667017596</v>
       </c>
       <c r="N23" t="n">
-        <v>734.0968244817334</v>
+        <v>734.0968244817333</v>
       </c>
       <c r="O23" t="n">
-        <v>647.5427362061382</v>
+        <v>647.5427362061381</v>
       </c>
       <c r="P23" t="n">
-        <v>514.6078116914252</v>
+        <v>514.6078116914251</v>
       </c>
       <c r="Q23" t="n">
         <v>308.4472576746064</v>
       </c>
       <c r="R23" t="n">
-        <v>35.36386521161529</v>
+        <v>35.36386521161526</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>148.3162515057383</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>147.357573614742</v>
       </c>
       <c r="L24" t="n">
         <v>574.858549637506</v>
       </c>
       <c r="M24" t="n">
-        <v>723.3370773840105</v>
+        <v>723.3370773840104</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
         <v>626.653105847897</v>
       </c>
       <c r="P24" t="n">
-        <v>485.7695483208881</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>31.28114102159217</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>148.3162515057383</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>381.3959388183878</v>
       </c>
       <c r="L27" t="n">
-        <v>460.1857094641492</v>
+        <v>574.858549637506</v>
       </c>
       <c r="M27" t="n">
         <v>723.3370773840104</v>
       </c>
       <c r="N27" t="n">
-        <v>758.3473275540572</v>
+        <v>740.6154029044712</v>
       </c>
       <c r="O27" t="n">
-        <v>626.653105847897</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>148.3162515057383</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>363.6640141688017</v>
       </c>
       <c r="L30" t="n">
-        <v>460.1857094641492</v>
+        <v>574.858549637506</v>
       </c>
       <c r="M30" t="n">
         <v>723.3370773840104</v>
@@ -36923,7 +36923,7 @@
         <v>758.3473275540572</v>
       </c>
       <c r="O30" t="n">
-        <v>626.653105847897</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>148.3162515057383</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>381.3959388183878</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>574.858549637506</v>
       </c>
       <c r="M33" t="n">
-        <v>426.2592300172968</v>
+        <v>705.605152734424</v>
       </c>
       <c r="N33" t="n">
         <v>758.3473275540572</v>
       </c>
       <c r="O33" t="n">
-        <v>626.653105847897</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>485.769548320888</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>271.4940085099742</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>65.58080264720491</v>
+        <v>65.58080264720488</v>
       </c>
       <c r="K34" t="n">
         <v>196.8308018395683</v>
@@ -37245,7 +37245,7 @@
         <v>222.6798729008472</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.02157050016181</v>
+        <v>90.02157050016179</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>381.3959388183878</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>454.1768016613729</v>
       </c>
       <c r="M36" t="n">
-        <v>426.2592300172968</v>
+        <v>723.3370773840104</v>
       </c>
       <c r="N36" t="n">
         <v>758.3473275540572</v>
       </c>
       <c r="O36" t="n">
-        <v>626.653105847897</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>485.769548320888</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>271.4940085099742</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>734.0968244817333</v>
       </c>
       <c r="O38" t="n">
-        <v>647.5427362061386</v>
+        <v>647.5427362061381</v>
       </c>
       <c r="P38" t="n">
         <v>514.6078116914251</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>148.3162515057383</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>381.3959388183878</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>557.1266249879199</v>
       </c>
       <c r="M39" t="n">
-        <v>426.2592300172968</v>
+        <v>723.3370773840104</v>
       </c>
       <c r="N39" t="n">
         <v>758.3473275540572</v>
       </c>
       <c r="O39" t="n">
-        <v>626.653105847897</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>485.769548320888</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>271.4940085099742</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>514.6078116914251</v>
       </c>
       <c r="Q41" t="n">
-        <v>308.4472576746061</v>
+        <v>308.4472576746064</v>
       </c>
       <c r="R41" t="n">
         <v>35.36386521161526</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>148.3162515057383</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>381.3959388183878</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>557.1266249879194</v>
       </c>
       <c r="M42" t="n">
         <v>723.3370773840104</v>
       </c>
       <c r="N42" t="n">
-        <v>732.7634886973177</v>
+        <v>758.3473275540572</v>
       </c>
       <c r="O42" t="n">
-        <v>626.653105847897</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>485.769548320888</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>32.86942988224962</v>
+        <v>32.8694298822497</v>
       </c>
       <c r="K43" t="n">
-        <v>164.119429074613</v>
+        <v>164.1194290746131</v>
       </c>
       <c r="L43" t="n">
-        <v>256.9557503107669</v>
+        <v>256.955750310767</v>
       </c>
       <c r="M43" t="n">
-        <v>279.6396912370562</v>
+        <v>279.6396912370563</v>
       </c>
       <c r="N43" t="n">
-        <v>279.2577992729442</v>
+        <v>279.2577992729443</v>
       </c>
       <c r="O43" t="n">
-        <v>244.2588260632975</v>
+        <v>244.2588260632976</v>
       </c>
       <c r="P43" t="n">
         <v>189.968500135892</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.31019773520653</v>
+        <v>57.31019773520661</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>736.9519667017596</v>
       </c>
       <c r="N44" t="n">
-        <v>734.0968244817333</v>
+        <v>734.0968244817345</v>
       </c>
       <c r="O44" t="n">
         <v>647.5427362061381</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>148.3162515057383</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>381.3959388183878</v>
       </c>
       <c r="L45" t="n">
-        <v>460.1857094641488</v>
+        <v>574.858549637506</v>
       </c>
       <c r="M45" t="n">
-        <v>723.3370773840104</v>
+        <v>705.6051527344245</v>
       </c>
       <c r="N45" t="n">
         <v>758.3473275540572</v>
       </c>
       <c r="O45" t="n">
-        <v>626.653105847897</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>32.86942988224967</v>
+        <v>32.86942988224957</v>
       </c>
       <c r="K46" t="n">
-        <v>164.1194290746131</v>
+        <v>164.119429074613</v>
       </c>
       <c r="L46" t="n">
-        <v>256.955750310767</v>
+        <v>256.9557503107669</v>
       </c>
       <c r="M46" t="n">
         <v>279.6396912370562</v>
       </c>
       <c r="N46" t="n">
-        <v>279.2577992729443</v>
+        <v>279.2577992729442</v>
       </c>
       <c r="O46" t="n">
-        <v>244.2588260632976</v>
+        <v>244.2588260632975</v>
       </c>
       <c r="P46" t="n">
-        <v>189.968500135892</v>
+        <v>189.9685001358919</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.31019773520658</v>
+        <v>57.31019773520648</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
